--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_4/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_4/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.317</v>
+        <v>-0.152</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.962</v>
+        <v>27.547</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.591</v>
+        <v>-0.143</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.367</v>
+        <v>30.688</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.569</v>
+        <v>-0.034</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.483</v>
+        <v>27.077</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>11.18402573499464</v>
+        <v>26.70719684666695</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>23.72971673840039</v>
+        <v>26.70719687916269</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>29.05788798962933</v>
+        <v>26.70719689057148</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6.633499914963135</v>
+        <v>26.70719684488498</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>22.03795133868463</v>
+        <v>26.70719688073891</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>27.3900332141084</v>
+        <v>26.7071968928649</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>11.29326468542878</v>
+        <v>26.70719685301468</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>27.73512745043371</v>
+        <v>26.70719688917228</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>33.08496279351424</v>
+        <v>26.70719690044091</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>28.623507849878</v>
+        <v>26.70719690249481</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>34.88187872669762</v>
+        <v>26.70719691652504</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>38.67529416443849</v>
+        <v>26.70719692160866</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>15.87047513714996</v>
+        <v>26.7071968764446</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>29.55797899955432</v>
+        <v>26.70719691098105</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>36.2360617318415</v>
+        <v>26.70719692211211</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>15.56576895229201</v>
+        <v>26.70719689721892</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>32.19201341328186</v>
+        <v>26.70719693494485</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>38.72826480218014</v>
+        <v>26.70719694764784</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>8.476851037583781</v>
+        <v>26.70719689336108</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>27.39227283177906</v>
+        <v>26.70719693409486</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>34.7061721287817</v>
+        <v>26.70719694794638</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>14.0867702079458</v>
+        <v>26.70719690572896</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>34.78934171904747</v>
+        <v>26.70719694715516</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>41.68833169096875</v>
+        <v>26.70719695993123</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>36.06709724514849</v>
+        <v>26.70719695802669</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>45.75337701914464</v>
+        <v>26.70719697539194</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>51.1421429546644</v>
+        <v>26.7071969813372</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>20.11880662849748</v>
+        <v>26.70719692611336</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>40.61424195477956</v>
+        <v>26.7071969682891</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>48.16621507460635</v>
+        <v>26.70719698036844</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>20.44729785029256</v>
+        <v>26.70719693661163</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>38.06026984386767</v>
+        <v>26.70719697456411</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>45.5475009737589</v>
+        <v>26.70719698778762</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>14.31074894255574</v>
+        <v>26.70719693288416</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>34.95451510777759</v>
+        <v>26.7071969739382</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>43.00563769182393</v>
+        <v>26.70719698823467</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>21.39704508228835</v>
+        <v>26.70719694706835</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>43.22268627385135</v>
+        <v>26.70719698873269</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>51.26148683108737</v>
+        <v>26.70719700202827</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>46.64584722462714</v>
+        <v>26.70719699758454</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>56.84244969946281</v>
+        <v>26.70719701470371</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>62.54154860433612</v>
+        <v>26.70719702002826</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>28.71106684583077</v>
+        <v>26.70719696442397</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>49.99031659130566</v>
+        <v>26.7071970059866</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>58.2627658463878</v>
+        <v>26.70719701870016</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>15.07546654033697</v>
+        <v>26.70719685128433</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>29.42458308194415</v>
+        <v>26.7071968841443</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>34.49534968904568</v>
+        <v>26.70719689506381</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>11.31284162805393</v>
+        <v>26.70719684954751</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>28.65575141616605</v>
+        <v>26.70719688596787</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>33.56676618430591</v>
+        <v>26.70719689748699</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>16.53132648586687</v>
+        <v>26.70719685789664</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>34.73157066912998</v>
+        <v>26.7071968944027</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>39.79788919211593</v>
+        <v>26.70719690515219</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>34.85718805102555</v>
+        <v>26.70719690618605</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>41.47246858154364</v>
+        <v>26.70719691994277</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>44.72672869933923</v>
+        <v>26.7071969245922</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>19.80287607344913</v>
+        <v>26.70719687915436</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>35.22940639659443</v>
+        <v>26.70719691432485</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>41.79309210603127</v>
+        <v>26.70719692514227</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>16.92420347923496</v>
+        <v>26.70719689723056</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>34.9482415691046</v>
+        <v>26.70719693521845</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>40.90184726155331</v>
+        <v>26.70719694733806</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>10.19721488650141</v>
+        <v>26.70719689350048</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>30.61425539397573</v>
+        <v>26.707196934723</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>37.13680312706474</v>
+        <v>26.70719694786266</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>16.7387281501636</v>
+        <v>26.70719690612934</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>38.79856221929943</v>
+        <v>26.70719694781887</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>45.0958969569399</v>
+        <v>26.70719695998022</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>39.32218906184497</v>
+        <v>26.70719695758295</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>49.14430525361883</v>
+        <v>26.70719697450558</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>53.75565605859362</v>
+        <v>26.70719697998306</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>21.66877598416873</v>
+        <v>26.70719692508</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>43.23523732597917</v>
+        <v>26.70719696753734</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>50.45274571929519</v>
+        <v>26.70719697937307</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>22.03460232740967</v>
+        <v>26.70719693688867</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>40.94027391777577</v>
+        <v>26.70719697512371</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>47.83083202562914</v>
+        <v>26.7071969877085</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>16.34440675140406</v>
+        <v>26.70719693335902</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>38.33532938390913</v>
+        <v>26.70719697490505</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>45.55830173514145</v>
+        <v>26.70719698845019</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>24.36242997920504</v>
+        <v>26.70719694791663</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>47.41519616883232</v>
+        <v>26.70719698986856</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>54.82611524171812</v>
+        <v>26.70719700248106</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>50.17394300413672</v>
+        <v>26.70719699776792</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>60.42250501873719</v>
+        <v>26.70719701434956</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>65.44517706363641</v>
+        <v>26.70719701928208</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>30.52822996993381</v>
+        <v>26.70719696391497</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>52.99385227324601</v>
+        <v>26.70719700589177</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>60.77676269440723</v>
+        <v>26.70719701823238</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>14.5647351933823</v>
+        <v>26.70719685021726</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>28.66247909841964</v>
+        <v>26.70719688304054</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>33.64855058831635</v>
+        <v>26.70719689390113</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>10.30872081894211</v>
+        <v>26.70719684817683</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>27.4190548233795</v>
+        <v>26.70719688455395</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>32.22783641415368</v>
+        <v>26.70719689603627</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>15.59247683762874</v>
+        <v>26.70719685660581</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>33.57268637039836</v>
+        <v>26.70719689308745</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>38.55866560125089</v>
+        <v>26.70719690379688</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>33.86215625659879</v>
+        <v>26.70719690508964</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>40.4277586227206</v>
+        <v>26.70719691881108</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>43.60584979130312</v>
+        <v>26.70719692347138</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>19.03313166448023</v>
+        <v>26.70719687811333</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>34.21435582086441</v>
+        <v>26.70719691326621</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>40.71729731266826</v>
+        <v>26.70719692404382</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>17.97877027525488</v>
+        <v>26.70719689745731</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>35.8177991237466</v>
+        <v>26.70719693548975</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>41.66522003453298</v>
+        <v>26.70719694754645</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>10.91360954421802</v>
+        <v>26.70719689353681</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>31.2066658019177</v>
+        <v>26.70719693482093</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>37.60036171122399</v>
+        <v>26.70719694790534</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>17.59019160651856</v>
+        <v>26.70719690631535</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>39.50803077677769</v>
+        <v>26.70719694807016</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>45.70285575308161</v>
+        <v>26.70719696018825</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>40.06353085101965</v>
+        <v>26.70719695794013</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>49.81780064591734</v>
+        <v>26.70719697485585</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>54.38941510953691</v>
+        <v>26.70719698033281</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>22.54141998998236</v>
+        <v>26.70719692536846</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>43.9031105471869</v>
+        <v>26.70719696786842</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>51.07019785561236</v>
+        <v>26.70719697968488</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>22.78048406547449</v>
+        <v>26.70719693742237</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>41.53087578170283</v>
+        <v>26.70719697570042</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>48.32563171408891</v>
+        <v>26.70719698821495</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>16.78374133071909</v>
+        <v>26.70719693368221</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>38.68170812175678</v>
+        <v>26.70719697529771</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>45.79128026147703</v>
+        <v>26.707196988768</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>24.88331192546491</v>
+        <v>26.70719694839257</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>47.81867244410668</v>
+        <v>26.70719699041022</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>55.14200079227756</v>
+        <v>26.70719700296553</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>50.67601472970907</v>
+        <v>26.7071969984</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>60.88281034501566</v>
+        <v>26.70719701497243</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>65.86056404813866</v>
+        <v>26.70719701989501</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>31.1384164393809</v>
+        <v>26.70719696448685</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>53.44266652025141</v>
+        <v>26.70719700649494</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>61.17531973641302</v>
+        <v>26.70719701879075</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>9.85849504477344</v>
+        <v>26.70719684456148</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>21.95731629708028</v>
+        <v>26.70719687654787</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>27.15190817220452</v>
+        <v>26.70719688773</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>5.378214752186679</v>
+        <v>26.70719684263393</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>20.30031850891388</v>
+        <v>26.70719687794361</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>25.48814128509451</v>
+        <v>26.70719688984344</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>9.834128381192494</v>
+        <v>26.70719685044064</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>25.75813859064463</v>
+        <v>26.70719688603905</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>30.98107602613042</v>
+        <v>26.70719689708009</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>26.75775202962785</v>
+        <v>26.70719689942814</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>32.8088087542943</v>
+        <v>26.7071969131923</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>36.52150505998412</v>
+        <v>26.70719691822621</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>14.54006417402807</v>
+        <v>26.70719687412906</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>27.74871236150558</v>
+        <v>26.7071969080516</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>34.30314422431798</v>
+        <v>26.7071969189945</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>13.87608138161676</v>
+        <v>26.70719689401934</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>29.92806201326008</v>
+        <v>26.70719693112984</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>36.33000015843527</v>
+        <v>26.70719694358732</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>6.755577277316814</v>
+        <v>26.7071968899924</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>25.05217527909543</v>
+        <v>26.7071969300971</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>32.2023369927994</v>
+        <v>26.7071969436858</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>12.15084791370353</v>
+        <v>26.70719690194777</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>32.20974545723845</v>
+        <v>26.70719694270822</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>38.97145031225402</v>
+        <v>26.70719695523806</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>33.59191571596406</v>
+        <v>26.7071969536603</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>43.04524039664479</v>
+        <v>26.70719697066802</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>48.34676127824652</v>
+        <v>26.70719697659048</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>18.23559928571546</v>
+        <v>26.70719692252547</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>38.06561090182412</v>
+        <v>26.7071969639655</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>45.48446686860363</v>
+        <v>26.70719697583939</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>19.23034552654421</v>
+        <v>26.70719693385084</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>36.28517647455172</v>
+        <v>26.70719697119004</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>43.56506284334034</v>
+        <v>26.70719698417157</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>12.94668023901649</v>
+        <v>26.70719692993089</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>32.98666687163643</v>
+        <v>26.70719697035462</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>40.81248242531471</v>
+        <v>26.70719698440021</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>19.87896730588889</v>
+        <v>26.70719694378</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>41.08511723735172</v>
+        <v>26.70719698479266</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>48.91770179677943</v>
+        <v>26.7071969978467</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>44.53822074437158</v>
+        <v>26.70719699371728</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>54.49679262143604</v>
+        <v>26.7071970105196</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>60.07492231482898</v>
+        <v>26.70719701580278</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>27.19692411921915</v>
+        <v>26.70719696132956</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>47.82604239920817</v>
+        <v>26.70719700218581</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>55.907584317324</v>
+        <v>26.70719701470191</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>14.30856986855965</v>
+        <v>26.70719685266587</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>27.3054133431675</v>
+        <v>26.70719688506287</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>32.6084755244892</v>
+        <v>26.70719689622298</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>9.934034258912289</v>
+        <v>26.70719685101199</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>25.89101462936939</v>
+        <v>26.70719688683354</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>31.18656203388018</v>
+        <v>26.7071968986754</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>14.80103471849179</v>
+        <v>26.70719685925669</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>31.69695631000286</v>
+        <v>26.70719689531823</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>37.03299605943235</v>
+        <v>26.70719690632245</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>32.06411734988571</v>
+        <v>26.70719690775492</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>38.4417026855212</v>
+        <v>26.70719692161685</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>42.17553040765986</v>
+        <v>26.70719692655857</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>18.85386584773042</v>
+        <v>26.70719688168792</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>32.76781211144402</v>
+        <v>26.70719691589877</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>39.45849806862809</v>
+        <v>26.70719692686479</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>20.14075809306534</v>
+        <v>26.70719690342839</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>37.09959385427157</v>
+        <v>26.70719694095908</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>43.46881088879478</v>
+        <v>26.70719695332752</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>13.11123393613604</v>
+        <v>26.70719689979219</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>32.47793945389714</v>
+        <v>26.70719694041954</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>39.59636241752322</v>
+        <v>26.70719695389784</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>19.09152639577836</v>
+        <v>26.7071969122723</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>40.13447512997273</v>
+        <v>26.70719695351065</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>46.87290883833059</v>
+        <v>26.70719696593941</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>40.90286621814616</v>
+        <v>26.70719696361264</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>50.69793925216297</v>
+        <v>26.70719698076332</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>55.95996114353905</v>
+        <v>26.70719698656805</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>24.66895850190052</v>
+        <v>26.70719693182606</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>45.22646519568452</v>
+        <v>26.70719697360998</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>24.15371332143353</v>
+        <v>26.70719694166604</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>42.05388947738562</v>
+        <v>26.70719697938553</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>49.37763878455794</v>
+        <v>26.70719699231881</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>18.01387835238913</v>
+        <v>26.70719693809529</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>39.038509774185</v>
+        <v>26.7071969789824</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>46.90419561217786</v>
+        <v>26.70719699296534</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>25.40538317481</v>
+        <v>26.7071969523607</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>47.5159766954021</v>
+        <v>26.70719699379553</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>55.41177143910315</v>
+        <v>26.70719700679683</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>50.43942190198832</v>
+        <v>26.70719700196922</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>60.76016521931049</v>
+        <v>26.70719701890147</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>66.33234561606147</v>
+        <v>26.70719702410828</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>32.25806373465237</v>
+        <v>26.70719696897014</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>53.61223743371387</v>
+        <v>26.70719701015027</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>61.78989981573489</v>
+        <v>26.70719702266179</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>16.25945585954129</v>
+        <v>26.70719686143852</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>29.61704956944104</v>
+        <v>26.70719689154716</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>34.33002297830421</v>
+        <v>26.70719690144209</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>12.7258067037553</v>
+        <v>26.70719686013964</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>29.04873434805116</v>
+        <v>26.70719689359249</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>33.59613141223777</v>
+        <v>26.70719690402398</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>17.52416074251594</v>
+        <v>26.70719686789359</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>34.50411159210553</v>
+        <v>26.70719690138977</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>39.21513410970396</v>
+        <v>26.70719691112566</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>34.10628182481146</v>
+        <v>26.70719691168702</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>40.32380363666773</v>
+        <v>26.70719692426783</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>43.38390015243699</v>
+        <v>26.70719692844742</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>20.30232875034802</v>
+        <v>26.70719688680091</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>34.29894229014153</v>
+        <v>26.70719691861041</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>40.35254010325046</v>
+        <v>26.70719692844607</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>23.04912827870626</v>
+        <v>26.70719690788605</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>40.01233963764626</v>
+        <v>26.70719694283331</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>45.4167760502071</v>
+        <v>26.70719695372964</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>16.79471142746001</v>
+        <v>26.70719690479993</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>36.2115811566288</v>
+        <v>26.70719694281081</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>42.1391296362015</v>
+        <v>26.70719695464394</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>23.10727721808906</v>
+        <v>26.70719691667753</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>43.86689805857158</v>
+        <v>26.7071969550676</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>49.59553197225387</v>
+        <v>26.70719696600329</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>43.66079377381013</v>
+        <v>26.70719696340538</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>52.95330659516701</v>
+        <v>26.70719697891661</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>57.24147886111167</v>
+        <v>26.70719698384434</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>27.32520153592231</v>
+        <v>26.70719693335117</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>47.32551245946086</v>
+        <v>26.70719697217992</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>53.93349387810193</v>
+        <v>26.70719698279436</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>26.61523666075488</v>
+        <v>26.70719694250409</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>44.29560152097251</v>
+        <v>26.70719697760153</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>50.59162567338507</v>
+        <v>26.70719698897344</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>21.16139515045095</v>
+        <v>26.70719693954257</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>41.90093823973267</v>
+        <v>26.7071969777634</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>48.50571404560505</v>
+        <v>26.70719699001925</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>28.75142835979729</v>
+        <v>26.70719695307907</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>50.3192903965986</v>
+        <v>26.70719699162783</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>57.11197699884653</v>
+        <v>26.70719700303486</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>52.25085525429552</v>
+        <v>26.70719699832049</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>61.95032859362205</v>
+        <v>26.70719701355993</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>66.5859843427113</v>
+        <v>26.70719701800852</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>34.14573278650796</v>
+        <v>26.7071969671528</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>54.86218352568604</v>
+        <v>26.7071970054641</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>62.0340181404551</v>
+        <v>26.70719701662826</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>9.033224263107904</v>
+        <v>26.70719684689669</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>20.97283408335641</v>
+        <v>26.707196876748</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>25.56756304694413</v>
+        <v>26.70719688699833</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>5.030297187534167</v>
+        <v>26.70719684520662</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>19.65784195083108</v>
+        <v>26.7071968782352</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>24.15324949064772</v>
+        <v>26.70719688908505</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>9.314821541605831</v>
+        <v>26.7071968525423</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>24.83402747381858</v>
+        <v>26.70719688573499</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>29.40746641070971</v>
+        <v>26.70719689588306</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>25.95980869355192</v>
+        <v>26.7071968981695</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>31.78394898308515</v>
+        <v>26.70719691099024</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>34.87230855258662</v>
+        <v>26.70719691542176</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>13.45000962570321</v>
+        <v>26.70719687385407</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>26.40645441887442</v>
+        <v>26.7071969058084</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>32.27839718495279</v>
+        <v>26.70719691582159</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>14.1397955297679</v>
+        <v>26.7071968931794</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>29.87965607381745</v>
+        <v>26.70719692800553</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>35.48866707019583</v>
+        <v>26.70719693944141</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>7.803042038811736</v>
+        <v>26.70719688972766</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>25.72496121891376</v>
+        <v>26.70719692745794</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>31.91090649636159</v>
+        <v>26.7071969398705</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>13.30879370479219</v>
+        <v>26.70719690114391</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>32.80688232689469</v>
+        <v>26.7071969393721</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>38.72120248744682</v>
+        <v>26.70719695088533</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>33.93994540228816</v>
+        <v>26.70719694955128</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>42.81472782376052</v>
+        <v>26.70719696538352</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>47.2744352221661</v>
+        <v>26.70719697057168</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>18.57111997376416</v>
+        <v>26.70719691986789</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>37.76703547564646</v>
+        <v>26.70719695889342</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>44.42721935724027</v>
+        <v>26.70719696986469</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>19.25024350535303</v>
+        <v>26.70719693047703</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>35.83793459696288</v>
+        <v>26.70719696554022</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>42.33579170397116</v>
+        <v>26.70719697737366</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>13.88571840074696</v>
+        <v>26.70719692724993</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>33.33182707064073</v>
+        <v>26.70719696532377</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>40.1776822689049</v>
+        <v>26.7071969780446</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>20.72563274285936</v>
+        <v>26.70719694041257</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>41.18758534013774</v>
+        <v>26.70719697890031</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>48.13774666624667</v>
+        <v>26.7071969907832</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>44.43595496205306</v>
+        <v>26.70719698722963</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>53.7374658577521</v>
+        <v>26.70719700274341</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>58.55445798498597</v>
+        <v>26.70719700740576</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>27.25480949396932</v>
+        <v>26.70719695638309</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>47.19503868466224</v>
+        <v>26.70719699487449</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>54.4345339242099</v>
+        <v>26.70719700629637</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>7.008045537092709</v>
+        <v>26.70719684461022</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>19.65791527299395</v>
+        <v>26.70719687679228</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>24.9530629000025</v>
+        <v>26.70719688796689</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>2.581719459155021</v>
+        <v>26.70719684267193</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>18.12371560797541</v>
+        <v>26.70719687825234</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>23.37824707213335</v>
+        <v>26.70719689011401</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>6.935338122982138</v>
+        <v>26.70719685047565</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>23.42936173262624</v>
+        <v>26.70719688628728</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>28.75800678901725</v>
+        <v>26.70719689731591</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>24.42927502587917</v>
+        <v>26.70719689935192</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>30.71990907703734</v>
+        <v>26.70719691320195</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>34.45944281941962</v>
+        <v>26.70719691816812</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>11.51513507856175</v>
+        <v>26.70719687355574</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>25.20595156384345</v>
+        <v>26.70719690770015</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>31.8715785884547</v>
+        <v>26.70719691866009</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>11.05947904526009</v>
+        <v>26.70719689376088</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>27.64625424619673</v>
+        <v>26.7071969310582</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>34.02943209416809</v>
+        <v>26.70719694347308</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>3.992715337469086</v>
+        <v>26.70719688980422</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>22.89298510383563</v>
+        <v>26.70719693017231</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>29.98884993211916</v>
+        <v>26.70719694368336</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>9.372034517115107</v>
+        <v>26.70719690180942</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>29.98515519742977</v>
+        <v>26.70719694277953</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>36.73875246508899</v>
+        <v>26.70719695526421</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>31.43215412117655</v>
+        <v>26.7071969535519</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>41.14474555058765</v>
+        <v>26.70719697070283</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>46.44248766324762</v>
+        <v>26.70719697656379</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>15.51342819015436</v>
+        <v>26.70719692208083</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>35.78545818135414</v>
+        <v>26.707196963728</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>43.24299153255378</v>
+        <v>26.70719697559326</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>15.83939088763816</v>
+        <v>26.70719693314695</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>33.40565209324319</v>
+        <v>26.70719697066205</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>40.76894741375693</v>
+        <v>26.70719698367253</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>9.730240106684434</v>
+        <v>26.70719692935603</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>30.33105847074287</v>
+        <v>26.7071969700196</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>38.21211403424901</v>
+        <v>26.70719698407445</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>16.58085954836309</v>
+        <v>26.70719694322534</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>38.30147247197167</v>
+        <v>26.70719698442748</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>46.23953060574877</v>
+        <v>26.70719699751219</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>41.86455219182574</v>
+        <v>26.7071969932178</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>52.10718698035222</v>
+        <v>26.70719701018039</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>57.72813886962609</v>
+        <v>26.7071970154481</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>23.96194484517869</v>
+        <v>26.70719696048734</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>45.07472054680223</v>
+        <v>26.70719700157704</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>53.24557009488175</v>
+        <v>26.70719701415579</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>19.40174535073596</v>
+        <v>26.70719686589224</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>33.51156125728954</v>
+        <v>26.70719689736875</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>38.48660109241884</v>
+        <v>26.70719690790578</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>16.59153477482949</v>
+        <v>26.70719686539305</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>33.85617897457922</v>
+        <v>26.70719690040869</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>38.63569424447376</v>
+        <v>26.70719691146829</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>21.87324530431264</v>
+        <v>26.70719687388299</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>39.80043532012952</v>
+        <v>26.70719690891401</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>44.75917887305583</v>
+        <v>26.70719691926961</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>39.73639338398787</v>
+        <v>26.70719691972085</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>46.22919388414964</v>
+        <v>26.70719693294189</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>49.4044833305554</v>
+        <v>26.70719693734828</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>25.3826394055323</v>
+        <v>26.70719689369422</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>40.28995710301508</v>
+        <v>26.70719692717695</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>46.78337800044601</v>
+        <v>26.7071969375699</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>21.23513064905489</v>
+        <v>26.70719690990082</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>38.97465890942294</v>
+        <v>26.7071969463381</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>44.61093737025034</v>
+        <v>26.70719695792235</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>15.45140926656027</v>
+        <v>26.70719690731034</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>35.74816862391091</v>
+        <v>26.70719694694392</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>41.89475760163337</v>
+        <v>26.70719695946341</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>22.0131316089881</v>
+        <v>26.70719691988369</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>43.72232674349286</v>
+        <v>26.7071969599122</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>49.68417389545843</v>
+        <v>26.7071969715184</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>44.01409830577553</v>
+        <v>26.70719696876055</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>53.61635014813365</v>
+        <v>26.70719698506872</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>58.05957012013643</v>
+        <v>26.70719699022079</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>27.19693646454359</v>
+        <v>26.70719693747096</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>48.19392949760378</v>
+        <v>26.70719697807902</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>55.11310713832882</v>
+        <v>26.70719698929464</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>25.39703615282399</v>
+        <v>26.70719694593738</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>43.90226571835522</v>
+        <v>26.70719698253453</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>50.5214629269058</v>
+        <v>26.70719699459706</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>20.76269217170324</v>
+        <v>26.70719694353647</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>42.49512068376788</v>
+        <v>26.70719698341047</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>49.36338301241521</v>
+        <v>26.70719699633614</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>28.58573184016239</v>
+        <v>26.70719695779755</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>51.15822971063696</v>
+        <v>26.70719699799403</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>58.26956678451312</v>
+        <v>26.70719701006585</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>53.70338245120834</v>
+        <v>26.70719700513763</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>63.73834605681539</v>
+        <v>26.70719702109737</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>68.54190838396028</v>
+        <v>26.70719702575148</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>34.95581999072161</v>
+        <v>26.70719697267204</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>56.72574472650204</v>
+        <v>26.70719701272938</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>64.23444178380875</v>
+        <v>26.70719702447333</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>5.706631364843624</v>
+        <v>26.70719683923184</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>17.29798767801739</v>
+        <v>26.70719686882103</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>21.89106148369028</v>
+        <v>26.70719687891782</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>1.305100181281393</v>
+        <v>26.70719683658141</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>15.27904538657143</v>
+        <v>26.70719686921274</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>19.84566547204602</v>
+        <v>26.70719687991137</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>5.368798734444177</v>
+        <v>26.70719684348935</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>20.38783019679218</v>
+        <v>26.7071968763222</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>24.97358528332871</v>
+        <v>26.70719688633159</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>21.49857162843365</v>
+        <v>26.70719688879628</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>27.14898842572033</v>
+        <v>26.70719690134083</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>30.25667924670986</v>
+        <v>26.70719690577284</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>8.947312521180883</v>
+        <v>26.70719686468925</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>21.7943872131153</v>
+        <v>26.70719689651007</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>27.62017792926474</v>
+        <v>26.70719690643351</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>9.037256549042358</v>
+        <v>26.70719688363556</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>24.21910101617157</v>
+        <v>26.70719691806508</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>29.91297627501681</v>
+        <v>26.70719692939149</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>2.532128494730426</v>
+        <v>26.70719687937443</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>19.60434420378802</v>
+        <v>26.70719691658839</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>25.91754351144201</v>
+        <v>26.70719692887376</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>7.630321794661949</v>
+        <v>26.70719689028213</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>26.42023764667323</v>
+        <v>26.70719692802016</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>32.43368075382834</v>
+        <v>26.70719693944469</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>27.65236969649836</v>
+        <v>26.70719693835163</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>36.26233801545976</v>
+        <v>26.70719695383685</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>40.74941044690571</v>
+        <v>26.70719695909457</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>12.37531495550755</v>
+        <v>26.70719690904163</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>31.1269139906803</v>
+        <v>26.70719694764438</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>37.83328068419045</v>
+        <v>26.7071969586465</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>14.51598101179445</v>
+        <v>26.70719692158939</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>30.53562427042983</v>
+        <v>26.70719695630741</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>37.15169922937577</v>
+        <v>26.70719696805227</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>8.85864232786426</v>
+        <v>26.7071969175825</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>27.41239101068045</v>
+        <v>26.70719695517163</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>34.45986133757364</v>
+        <v>26.70719696782658</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>15.37581012342874</v>
+        <v>26.70719693028003</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>35.11980804408001</v>
+        <v>26.70719696832518</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>42.19845948430823</v>
+        <v>26.70719698014194</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>38.42497704095994</v>
+        <v>26.70719697681536</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>47.39665524836055</v>
+        <v>26.707196992026</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>52.3075621444081</v>
+        <v>26.70719699675645</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>21.4071586394478</v>
+        <v>26.70719694625337</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>40.93879424984692</v>
+        <v>26.70719698442582</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>48.26981014268</v>
+        <v>26.70719699587295</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>10.2440546800147</v>
+        <v>26.70719684596632</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>23.4010988886241</v>
+        <v>26.70719687716663</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>28.11668376505443</v>
+        <v>26.70719688742033</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>5.639696037174584</v>
+        <v>26.70719684333391</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>21.5908325104228</v>
+        <v>26.70719687787869</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>26.15143332450327</v>
+        <v>26.70719688875591</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>10.30514808796573</v>
+        <v>26.70719685095782</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>27.12583819181096</v>
+        <v>26.70719688562587</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>31.85219407994918</v>
+        <v>26.70719689574603</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>27.44616316277582</v>
+        <v>26.70719689730193</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>33.63710783933502</v>
+        <v>26.70719691032423</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>36.67589626061208</v>
+        <v>26.70719691477716</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>13.47702085316911</v>
+        <v>26.70719687179074</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>27.62768476903815</v>
+        <v>26.70719690511044</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>33.71841437592602</v>
+        <v>26.70719691534455</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>17.1792158092244</v>
+        <v>26.70719689418642</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>33.98388675913051</v>
+        <v>26.70719693041643</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>39.58337671935782</v>
+        <v>26.70719694183722</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>9.995478208387231</v>
+        <v>26.70719688996069</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>29.11369029222617</v>
+        <v>26.70719692928037</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>35.25259210038887</v>
+        <v>26.70719694172222</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>16.22285412941474</v>
+        <v>26.70719690190941</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>36.90805081178376</v>
+        <v>26.7071969416879</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>42.84609931547972</v>
+        <v>26.70719695318071</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>37.36050268261482</v>
+        <v>26.70719695125161</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>46.64176050514867</v>
+        <v>26.70719696731794</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>51.01213547087911</v>
+        <v>26.7071969725676</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>20.68391767555271</v>
+        <v>26.70719692027906</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>40.80479380345879</v>
+        <v>26.7071969607263</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>47.62946906817404</v>
+        <v>26.70719697196678</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>21.8896609998126</v>
+        <v>26.70719693291945</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>39.58578017305145</v>
+        <v>26.70719696941583</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>46.06101374402863</v>
+        <v>26.70719698127558</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>15.51422985709046</v>
+        <v>26.70719692880274</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>36.17278710975857</v>
+        <v>26.70719696846248</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>42.98467780770663</v>
+        <v>26.70719698127619</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>23.17557193115393</v>
+        <v>26.70719694265961</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>44.85355604319474</v>
+        <v>26.70719698272159</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>51.84725563261368</v>
+        <v>26.70719699463807</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>47.4343483835223</v>
+        <v>26.70719699042731</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>57.15416241052372</v>
+        <v>26.70719700621254</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>61.92940677827082</v>
+        <v>26.70719701092701</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>28.8444478766663</v>
+        <v>26.70719695814815</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>49.89581026355198</v>
+        <v>26.70719699816491</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>57.25496355520314</v>
+        <v>26.70719700987575</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>6.334731361286785</v>
+        <v>26.70719683741201</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>18.40148867888007</v>
+        <v>26.70719686803502</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>22.9730696958034</v>
+        <v>26.7071968783807</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>1.904181166724619</v>
+        <v>26.70719683467554</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>16.59011772816634</v>
+        <v>26.70719686854426</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>21.00373067070228</v>
+        <v>26.70719687950393</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>6.18231031864455</v>
+        <v>26.70719684188107</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>21.82582028335956</v>
+        <v>26.70719687592213</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>26.40251820930433</v>
+        <v>26.70719688614555</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>22.81063483636173</v>
+        <v>26.70719688860985</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>28.61336457361735</v>
+        <v>26.70719690155833</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>31.55596932483247</v>
+        <v>26.70719690609077</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>9.934121641685271</v>
+        <v>26.70719686394924</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>23.07034711838429</v>
+        <v>26.70719689679438</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>28.97834639082004</v>
+        <v>26.70719690703095</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>7.80660163249301</v>
+        <v>26.70719688166555</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>23.39652130323638</v>
+        <v>26.70719691718012</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>29.02033244769042</v>
+        <v>26.70719692878492</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>0.7241785272635255</v>
+        <v>26.70719687705827</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>18.36347911725552</v>
+        <v>26.70719691554768</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>24.52389810862737</v>
+        <v>26.70719692813472</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>6.152609693685839</v>
+        <v>26.70719688833688</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>25.50462009675629</v>
+        <v>26.70719692732942</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>31.46361475239679</v>
+        <v>26.70719693901226</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>26.84297135396347</v>
+        <v>26.70719693799944</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>35.65723892420588</v>
+        <v>26.70719695394463</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>40.02256490024445</v>
+        <v>26.70719695928062</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>11.35669872599972</v>
+        <v>26.7071969080531</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>30.39948824973578</v>
+        <v>26.70719694783111</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>37.10782957616738</v>
+        <v>26.70719695916856</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>14.87964597986128</v>
+        <v>26.7071969227887</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>31.49272730050606</v>
+        <v>26.7071969586711</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>37.86468388252135</v>
+        <v>26.70719697063508</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>8.65017374020665</v>
+        <v>26.7071969184425</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>27.98282699043983</v>
+        <v>26.7071969573891</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>34.68182384520457</v>
+        <v>26.70719697026943</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>15.71327655823754</v>
+        <v>26.70719693179721</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>36.21866793156847</v>
+        <v>26.70719697119568</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>43.08824406651148</v>
+        <v>26.70719698320827</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>39.559025852891</v>
+        <v>26.70719697989668</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>48.76425346992003</v>
+        <v>26.70719699552631</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>53.4982366498049</v>
+        <v>26.70719700029309</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>22.04705834711857</v>
+        <v>26.70719694851916</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>42.07203938901682</v>
+        <v>26.70719698793892</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>49.23611218599943</v>
+        <v>26.70719699966685</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>1.481843507460987</v>
+        <v>26.70719683326578</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>12.50167719056109</v>
+        <v>26.70719686237979</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>16.75377860563312</v>
+        <v>26.70719687216959</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>-3.161610070307251</v>
+        <v>26.70719682996668</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>10.28290422519075</v>
+        <v>26.70719686214829</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>14.37649651701483</v>
+        <v>26.70719687255377</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>0.4724518655382042</v>
+        <v>26.70719683638074</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>14.85337319331224</v>
+        <v>26.70719686873499</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>19.1119487674293</v>
+        <v>26.70719687841262</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>16.09881262886223</v>
+        <v>26.7071968812555</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>21.48414899791492</v>
+        <v>26.70719689353218</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>24.30694189863321</v>
+        <v>26.70719689785214</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>4.311936172212611</v>
+        <v>26.70719685805455</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>16.34591022653005</v>
+        <v>26.70719688924206</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>21.88418778289482</v>
+        <v>26.7071968989695</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>4.405669687998341</v>
+        <v>26.7071968764024</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>18.79193234042461</v>
+        <v>26.70719691020486</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>24.0566469206051</v>
+        <v>26.70719692119053</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>-2.777069720902663</v>
+        <v>26.70719687138082</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>13.50689161368983</v>
+        <v>26.70719690800828</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>19.28925109163735</v>
+        <v>26.7071969199657</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>2.059812380200437</v>
+        <v>26.70719688173262</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>19.99863815100024</v>
+        <v>26.70719691884297</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>25.57858884532178</v>
+        <v>26.70719692990658</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>21.51109523222751</v>
+        <v>26.70719692938887</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>29.79009798286524</v>
+        <v>26.70719694450626</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>33.9573217189078</v>
+        <v>26.707196949615</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>7.143626252410908</v>
+        <v>26.70719690106533</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>24.78804483061769</v>
+        <v>26.70719693888976</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>31.12705026068646</v>
+        <v>26.7071969496637</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>11.58801848336344</v>
+        <v>26.70719691669857</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>26.96865265485211</v>
+        <v>26.70719695084796</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>32.91937362741399</v>
+        <v>26.70719696222105</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>5.081348705758781</v>
+        <v>26.7071969118837</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>23.0083075858237</v>
+        <v>26.7071969489422</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>29.29677212993005</v>
+        <v>26.70719696123546</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>11.55439669499451</v>
+        <v>26.70719692430412</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>30.61857336485737</v>
+        <v>26.70719696180257</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>37.04472127971573</v>
+        <v>26.70719697323171</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>33.99708115680454</v>
+        <v>26.70719697041911</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>42.65612898490322</v>
+        <v>26.70719698527999</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>47.16540322200274</v>
+        <v>26.70719698985158</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>17.70434712845628</v>
+        <v>26.7071969407153</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>36.28385912347937</v>
+        <v>26.70719697819747</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>43.05145735098134</v>
+        <v>26.7071969894152</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>11.72026211292386</v>
+        <v>26.70719684579932</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>24.31458171388433</v>
+        <v>26.7071968782959</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>29.62530637530269</v>
+        <v>26.70719688966193</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>6.941705170641285</v>
+        <v>26.70719684375058</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>22.37209818305811</v>
+        <v>26.70719687961931</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>27.65056750788139</v>
+        <v>26.70719689167256</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>11.74734088384258</v>
+        <v>26.70719685198182</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>28.24755132867069</v>
+        <v>26.70719688814707</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>33.57405252513034</v>
+        <v>26.70719689937354</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>29.0879991029079</v>
+        <v>26.70719690152649</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>35.31625172363455</v>
+        <v>26.70719691548721</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>39.0064010521002</v>
+        <v>26.7071969205462</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>16.3311653966925</v>
+        <v>26.70719687551768</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>30.08592137932562</v>
+        <v>26.70719691012749</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>36.73506502257841</v>
+        <v>26.7071969212093</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>13.95395281604544</v>
+        <v>26.70719689426178</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>30.4786987175855</v>
+        <v>26.70719693192677</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>36.93836609915655</v>
+        <v>26.70719694455894</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>6.507762313319496</v>
+        <v>26.70719689005948</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>25.2841480913043</v>
+        <v>26.70719693075228</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>32.4631618757364</v>
+        <v>26.70719694449086</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>12.16618562127776</v>
+        <v>26.70719690243314</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>32.77095191705146</v>
+        <v>26.70719694380033</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>39.58166791080817</v>
+        <v>26.70719695650828</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>34.14405753551152</v>
+        <v>26.70719695483636</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>43.73486288849708</v>
+        <v>26.70719697209569</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>48.98048009348679</v>
+        <v>26.70719697800367</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>18.34851194398149</v>
+        <v>26.70719692309721</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>38.74174129818191</v>
+        <v>26.70719696523696</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>46.21206493225482</v>
+        <v>26.70719697727069</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>19.47396164266576</v>
+        <v>26.70719693450215</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>37.02127114078085</v>
+        <v>26.70719697241373</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>44.41917130328839</v>
+        <v>26.70719698557636</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>12.95026248328336</v>
+        <v>26.70719693047933</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>33.49485465933421</v>
+        <v>26.70719697151684</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>41.39092426594627</v>
+        <v>26.70719698571128</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>20.15458101396564</v>
+        <v>26.70719694473709</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>41.92144514250484</v>
+        <v>26.70719698637079</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>49.85917761317545</v>
+        <v>26.70719699960099</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>45.40894368811246</v>
+        <v>26.70719699535685</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>55.50202968929976</v>
+        <v>26.70719701237219</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>61.07711400761972</v>
+        <v>26.70719701766338</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>27.54260159540444</v>
+        <v>26.70719696230248</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>48.76427110649796</v>
+        <v>26.70719700385891</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>56.94589578811562</v>
+        <v>26.70719701651272</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>14.34601836173403</v>
+        <v>26.70719684817118</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>27.3506705137853</v>
+        <v>26.70719687921643</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>32.08605389234244</v>
+        <v>26.70719688960081</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>10.1811220137382</v>
+        <v>26.70719684588347</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>25.89146709545624</v>
+        <v>26.70719688022594</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>30.50864220402537</v>
+        <v>26.70719689119471</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>15.08000839802745</v>
+        <v>26.70719685360176</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>31.69619357529163</v>
+        <v>26.70719688808026</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>36.42791556171301</v>
+        <v>26.70719689832185</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>32.1147869514603</v>
+        <v>26.70719689985376</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>38.2152037941621</v>
+        <v>26.70719691288934</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>41.29834381700453</v>
+        <v>26.70719691738876</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>18.21386987091883</v>
+        <v>26.70719687444743</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>32.39876748312297</v>
+        <v>26.70719690779888</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>38.49586145430715</v>
+        <v>26.70719691806181</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>15.50487254782375</v>
+        <v>26.70719689172065</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>31.99722443321744</v>
+        <v>26.70719692762677</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>37.67929146783169</v>
+        <v>26.70719693921069</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>8.720760567309625</v>
+        <v>26.70719688765697</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>27.37459223743461</v>
+        <v>26.70719692657115</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>33.61448040161201</v>
+        <v>26.70719693912372</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>14.74026723511958</v>
+        <v>26.70719689940448</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>35.04059779073221</v>
+        <v>26.70719693880351</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>41.04047379374488</v>
+        <v>26.70719695044361</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>35.81097515462047</v>
+        <v>26.70719694860677</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>44.92235709793636</v>
+        <v>26.70719696462334</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>49.34203495025963</v>
+        <v>26.70719696994985</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>19.36477313734169</v>
+        <v>26.70719691797817</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>39.36135685356377</v>
+        <v>26.70719695819342</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>46.19005936517425</v>
+        <v>26.70719696949993</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>20.45645638838858</v>
+        <v>26.70719693048116</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>37.82859399661628</v>
+        <v>26.70719696666712</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>44.41002994873353</v>
+        <v>26.70719697868465</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>14.63020938191818</v>
+        <v>26.70719692661315</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>34.82017059023048</v>
+        <v>26.70719696587733</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>41.75549578463998</v>
+        <v>26.70719697881896</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>22.08729909534339</v>
+        <v>26.70719694025144</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>43.37361033755924</v>
+        <v>26.70719697994657</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>50.44587209354488</v>
+        <v>26.70719699200464</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>46.28985595586175</v>
+        <v>26.70719698791286</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>55.80330553238058</v>
+        <v>26.70719700363291</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>60.65138690256421</v>
+        <v>26.70719700841214</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>27.97273093467003</v>
+        <v>26.70719695595536</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>48.8538208490943</v>
+        <v>26.70719699574599</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>56.26181007079374</v>
+        <v>26.70719700752013</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>15.81461589485239</v>
+        <v>26.70719685493001</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>29.62402707634009</v>
+        <v>26.70719688853655</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>35.16642221355075</v>
+        <v>26.70719690016656</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>11.86068325297845</v>
+        <v>26.70719685378593</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>28.79490726212245</v>
+        <v>26.7071968909721</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>34.30023630160928</v>
+        <v>26.70719690328024</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>17.03099383629641</v>
+        <v>26.70719686253386</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>34.89430059335856</v>
+        <v>26.70719689993866</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>40.45717177999528</v>
+        <v>26.70719691139114</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>35.25666208231306</v>
+        <v>26.70719691259853</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>41.92255591770091</v>
+        <v>26.70719692696569</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>45.76229813953704</v>
+        <v>26.70719693205039</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>21.3192181202549</v>
+        <v>26.7071968853983</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>36.18986921083331</v>
+        <v>26.70719692104256</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>43.21304283916977</v>
+        <v>26.70719693243953</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>18.85850322856436</v>
+        <v>26.70719690490873</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>36.7082608930336</v>
+        <v>26.7071969438067</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>43.28710503791609</v>
+        <v>26.70719695666874</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>12.02946861072</v>
+        <v>26.70719690152459</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>32.38784391142993</v>
+        <v>26.70719694361807</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>39.70160347187934</v>
+        <v>26.70719695760967</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>18.23557598632302</v>
+        <v>26.70719691457209</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>40.30929375195429</v>
+        <v>26.70719695729799</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>47.26171602940563</v>
+        <v>26.70719697020743</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>41.18653922756481</v>
+        <v>26.70719696762106</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>51.33133683336199</v>
+        <v>26.70719698538436</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>56.71944934219627</v>
+        <v>26.70719699133386</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>24.23148723517793</v>
+        <v>26.70719693455983</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>45.89646865203269</v>
+        <v>26.70719697795397</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>53.62447307824735</v>
+        <v>26.70719699024112</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>23.32309542438191</v>
+        <v>26.70719694411393</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>42.12155099363986</v>
+        <v>26.70719698320523</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>49.70350617626212</v>
+        <v>26.70719699662247</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>17.55776666599834</v>
+        <v>26.70719694085368</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>39.61142688775982</v>
+        <v>26.70719698322437</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>47.69443362178058</v>
+        <v>26.70719699770108</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>25.21271220576145</v>
+        <v>26.70719695571072</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>48.36280015492261</v>
+        <v>26.70719699863583</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>56.51682191914914</v>
+        <v>26.70719701210455</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>51.49390939617201</v>
+        <v>26.70719700699223</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>62.16410407977426</v>
+        <v>26.7071970244837</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>67.87262438410087</v>
+        <v>26.70719702982418</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>32.48337400812145</v>
+        <v>26.70719697266867</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>54.95745289316391</v>
+        <v>26.70719701543872</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>63.40268983955269</v>
+        <v>26.70719702839099</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>13.79695364380477</v>
+        <v>26.70719685339061</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>26.52783023072533</v>
+        <v>26.70719688515907</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>31.94861686472056</v>
+        <v>26.70719689629285</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>9.69313785363682</v>
+        <v>26.70719685221195</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>25.37112398680592</v>
+        <v>26.70719688731266</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>30.78550966657159</v>
+        <v>26.707196899111</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>14.39907231102884</v>
+        <v>26.7071968601467</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>31.06411341567441</v>
+        <v>26.70719689552659</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>36.51469239798026</v>
+        <v>26.70719690650352</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>31.73340197673848</v>
+        <v>26.70719690813847</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>38.05791842473212</v>
+        <v>26.70719692184226</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>41.89435833989925</v>
+        <v>26.70719692678718</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>18.81260304069493</v>
+        <v>26.70719688272625</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>32.61624797775826</v>
+        <v>26.70719691636364</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>39.44257302901509</v>
+        <v>26.70719692727411</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>17.85339874686628</v>
+        <v>26.70719690246487</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>34.58958213417358</v>
+        <v>26.70719693923737</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>41.14869028415444</v>
+        <v>26.70719695160707</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>11.11534874964945</v>
+        <v>26.70719689931034</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>30.21079636351519</v>
+        <v>26.70719693904997</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>37.52524850684061</v>
+        <v>26.70719695250581</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>16.74496008782111</v>
+        <v>26.70719691124419</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>37.59605279753514</v>
+        <v>26.70719695165991</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>44.52497781347034</v>
+        <v>26.70719696408653</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>38.73035692499498</v>
+        <v>26.70719696191534</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>48.4973218760087</v>
+        <v>26.70719697885582</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>53.91008239235741</v>
+        <v>26.70719698466286</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>22.70381387263489</v>
+        <v>26.70719693083573</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>43.23383500876687</v>
+        <v>26.7071969718747</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>50.85524701856834</v>
+        <v>26.70719698365027</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>22.2914716342574</v>
+        <v>26.707196940444</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>40.01292369027314</v>
+        <v>26.70719697742182</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>47.51563131788492</v>
+        <v>26.70719699032021</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>16.49541978895792</v>
+        <v>26.70719693734775</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>37.31203959370688</v>
+        <v>26.70719697736414</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>45.36327764426813</v>
+        <v>26.70719699128832</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>23.58484528727287</v>
+        <v>26.70719695106078</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>45.55532763056823</v>
+        <v>26.70719699169027</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>53.62990703452666</v>
+        <v>26.70719700465085</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>48.84711557805025</v>
+        <v>26.70719700000345</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>59.13938681103616</v>
+        <v>26.70719701671841</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>64.85680919358911</v>
+        <v>26.70719702191251</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>30.81897325606105</v>
+        <v>26.7071969677084</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>52.15166524563891</v>
+        <v>26.70719700815015</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>60.48679121492486</v>
+        <v>26.70719702057862</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>12.55247875620399</v>
+        <v>26.70719684803041</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>26.48132386941939</v>
+        <v>26.70719688110577</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>31.73289013732651</v>
+        <v>26.70719689217886</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>8.124006431221645</v>
+        <v>26.7071968459187</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>24.91563170066293</v>
+        <v>26.70719688244973</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>30.09431937809644</v>
+        <v>26.70719689416925</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>13.26529569522704</v>
+        <v>26.70719685439964</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>31.08768295497236</v>
+        <v>26.70719689112843</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>36.349896261021</v>
+        <v>26.70719690207036</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>31.49483491567108</v>
+        <v>26.70719690355407</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>38.08199385997607</v>
+        <v>26.70719691741524</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>41.57765678498223</v>
+        <v>26.70719692225419</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>16.73904316716988</v>
+        <v>26.70719687633773</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>32.02167874982562</v>
+        <v>26.70719691177684</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>38.71785402051484</v>
+        <v>26.70719692273483</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>14.61087203723111</v>
+        <v>26.70719689498484</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>32.32025260817692</v>
+        <v>26.70719693326615</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>38.51924434203822</v>
+        <v>26.70719694552628</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>7.561111524948021</v>
+        <v>26.70719689098976</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>27.58165935118365</v>
+        <v>26.70719693242097</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>34.42029503390195</v>
+        <v>26.70719694571411</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>13.78719906446522</v>
+        <v>26.70719690372133</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>35.5666165380462</v>
+        <v>26.70719694570977</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>42.13018451038128</v>
+        <v>26.70719695805591</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>36.28735895313937</v>
+        <v>26.70719695594914</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>46.11147686984659</v>
+        <v>26.70719697303666</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>51.09599634731457</v>
+        <v>26.70719697875626</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>18.83146838213134</v>
+        <v>26.70719692313105</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>40.37804899676699</v>
+        <v>26.70719696591215</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>47.83004049344716</v>
+        <v>26.70719697791589</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>19.0421094138877</v>
+        <v>26.70719693483857</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>37.65233503836215</v>
+        <v>26.70719697335753</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>44.8734419978969</v>
+        <v>26.70719698614106</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>13.05303301244928</v>
+        <v>26.70719693104317</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>34.66738633400313</v>
+        <v>26.70719697279265</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>42.31474773176406</v>
+        <v>26.70719698656039</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>20.69247263396209</v>
+        <v>26.70719694563764</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>43.48156982308473</v>
+        <v>26.70719698787314</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>51.24995605263484</v>
+        <v>26.70719700072836</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>46.59487536286202</v>
+        <v>26.7071969962088</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>56.89868437928669</v>
+        <v>26.70719701301852</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>62.26057656474819</v>
+        <v>26.70719701814629</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>27.19030652831915</v>
+        <v>26.70719696206148</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>49.61316242568945</v>
+        <v>26.70719700434009</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>57.7174601829508</v>
+        <v>26.70719701687903</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>8.963929409282006</v>
+        <v>26.70719684547315</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>20.6907841825498</v>
+        <v>26.70719687548699</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>25.38181244034315</v>
+        <v>26.70719688586212</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>4.608843561684665</v>
+        <v>26.70719684349689</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>18.99278123351452</v>
+        <v>26.70719687659247</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>23.63596198778098</v>
+        <v>26.70719688761852</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>8.78961520276393</v>
+        <v>26.70719685084194</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>24.07837344290717</v>
+        <v>26.70719688420555</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>28.78638013711765</v>
+        <v>26.70719689448964</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>24.76014163902657</v>
+        <v>26.70719689685468</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>30.5179731905238</v>
+        <v>26.70719690973644</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>33.95236218228341</v>
+        <v>26.70719691445293</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>12.82117121738291</v>
+        <v>26.70719687275034</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>25.60865679589645</v>
+        <v>26.70719690477282</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>31.52688589548626</v>
+        <v>26.70719691493082</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>12.86989151833733</v>
+        <v>26.70719689186046</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>28.42091845009708</v>
+        <v>26.70719692676359</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>34.27783903973497</v>
+        <v>26.70719693838219</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>6.172805392712963</v>
+        <v>26.70719688808769</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>23.85942363392645</v>
+        <v>26.70719692579052</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>30.37922483721571</v>
+        <v>26.70719693844753</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>11.26695416587666</v>
+        <v>26.70719689937379</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>30.55924046816018</v>
+        <v>26.70719693767565</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>36.75849443704512</v>
+        <v>26.70719694939092</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>31.48079523199986</v>
+        <v>26.70719694806514</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>40.3540860547302</v>
+        <v>26.70719696402411</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>45.31490828960382</v>
+        <v>26.70719696950461</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>16.58555453189205</v>
+        <v>26.70719691854094</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>35.71817253037014</v>
+        <v>26.70719695763614</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>42.57535423359234</v>
+        <v>26.70719696874488</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>17.52405112549259</v>
+        <v>26.70719692919098</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>33.99095300817398</v>
+        <v>26.7071969643305</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>40.74523394350172</v>
+        <v>26.7071969764158</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>11.62689421568424</v>
+        <v>26.70719692551819</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>30.88851425536736</v>
+        <v>26.70719696355713</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>38.11169188525697</v>
+        <v>26.70719697660531</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>18.08324929363497</v>
+        <v>26.70719693852458</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>38.40699382436173</v>
+        <v>26.70719697707361</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>45.67028397007856</v>
+        <v>26.707196989249</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>41.34611186649248</v>
+        <v>26.70719698550609</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>50.65738575428456</v>
+        <v>26.70719700124567</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>55.94431002762981</v>
+        <v>26.70719700615165</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>24.66963503970909</v>
+        <v>26.70719695480331</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>44.47486847402827</v>
+        <v>26.70719699334047</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>52.02571540554527</v>
+        <v>26.70719700500747</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>12.17348384718218</v>
+        <v>26.70719685132834</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>24.71615634290431</v>
+        <v>26.70719688290087</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>30.1185468612424</v>
+        <v>26.70719689400526</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>7.945032943933761</v>
+        <v>26.70719685003003</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>23.38472104720519</v>
+        <v>26.70719688489093</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>28.80040938550819</v>
+        <v>26.70719689667212</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>12.56958595522353</v>
+        <v>26.70719685788214</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>29.01634974058743</v>
+        <v>26.70719689303612</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>34.45051142804962</v>
+        <v>26.70719690399142</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>29.89806239950035</v>
+        <v>26.70719690585736</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>36.15864947957763</v>
+        <v>26.70719691951292</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>40.00656613636045</v>
+        <v>26.70719692445907</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>17.16772994277595</v>
+        <v>26.70719688063187</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>30.82272127256304</v>
+        <v>26.70719691412162</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>37.60810903954513</v>
+        <v>26.70719692497527</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>15.87037388939999</v>
+        <v>26.7071968999738</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>32.42286271803367</v>
+        <v>26.70719693653642</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>39.0122867156832</v>
+        <v>26.70719694890655</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>9.046433375415845</v>
+        <v>26.7071968966957</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>27.90832018115116</v>
+        <v>26.70719693619112</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>35.27309807988257</v>
+        <v>26.70719694965907</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>14.56841874891646</v>
+        <v>26.70719690852942</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>35.20200907094542</v>
+        <v>26.70719694870498</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>42.16290854062164</v>
+        <v>26.70719696113727</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>36.53649758594407</v>
+        <v>26.70719695917004</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>46.22975577205876</v>
+        <v>26.7071969760532</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>51.6701180818994</v>
+        <v>26.70719698186996</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>20.68834161253112</v>
+        <v>26.70719692829861</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>41.07433684933128</v>
+        <v>26.70719696915842</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>48.70112781965781</v>
+        <v>26.70719698090773</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>20.45889286929688</v>
+        <v>26.70719693798621</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>38.00163804251628</v>
+        <v>26.70719697476054</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>45.5225891531839</v>
+        <v>26.70719698765189</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>14.55932549201168</v>
+        <v>26.7071969347696</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>35.15041687544553</v>
+        <v>26.70719697455187</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>43.23979973921401</v>
+        <v>26.70719698847769</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>21.55134160417695</v>
+        <v>26.70719694838116</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>43.31240990717757</v>
+        <v>26.70719698877868</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>51.40229377451749</v>
+        <v>26.70719700173426</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>46.78245785118337</v>
+        <v>26.70719699728964</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>56.98758977906422</v>
+        <v>26.70719701394648</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>62.72961485353854</v>
+        <v>26.7071970191447</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>28.94159657306338</v>
+        <v>26.70719696519972</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>50.12041528380947</v>
+        <v>26.70719700546203</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>58.45993401667099</v>
+        <v>26.70719701785566</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>17.39301161913201</v>
+        <v>26.707196859337</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>30.17020074931769</v>
+        <v>26.70719689033037</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>35.10814542999439</v>
+        <v>26.70719690089623</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>13.97770381129562</v>
+        <v>26.70719685825386</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>29.77611082602492</v>
+        <v>26.70719689264466</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>34.5643972138646</v>
+        <v>26.70719690377445</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>18.90438516060582</v>
+        <v>26.70719686633543</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>35.44565056400458</v>
+        <v>26.70719690083292</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>40.38712962137091</v>
+        <v>26.70719691125727</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>35.83576450176761</v>
+        <v>26.70719691247574</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>41.97773810456641</v>
+        <v>26.70719692562101</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>45.31817777082182</v>
+        <v>26.7071969301909</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>22.77349502408651</v>
+        <v>26.70719688728918</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>36.51899545398031</v>
+        <v>26.70719692020943</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>42.90123691117582</v>
+        <v>26.70719693064867</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>20.13069015799417</v>
+        <v>26.7071969045783</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>36.58918926943594</v>
+        <v>26.70719694046648</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>42.3849980927769</v>
+        <v>26.70719695217799</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>14.05799988613704</v>
+        <v>26.70719690142167</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>32.97470470484991</v>
+        <v>26.70719694038925</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>39.29032434386217</v>
+        <v>26.70719695304982</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>20.04053023432395</v>
+        <v>26.70719691351984</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>40.43560551364542</v>
+        <v>26.70719695295589</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>46.56596531799038</v>
+        <v>26.70719696472894</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>41.23790252752445</v>
+        <v>26.70719696248029</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>50.50696233780274</v>
+        <v>26.70719697871193</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>55.21360337913465</v>
+        <v>26.70719698405753</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>25.4416132945166</v>
+        <v>26.7071969318727</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>45.39287053680383</v>
+        <v>26.70719697193081</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>52.33135079053293</v>
+        <v>26.70719698324142</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>24.07676745568565</v>
+        <v>26.7071969413359</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>41.41605626292998</v>
+        <v>26.70719697744083</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>48.11924171704896</v>
+        <v>26.70719698961344</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>19.01354011670544</v>
+        <v>26.70719693833099</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>39.47039848517653</v>
+        <v>26.70719697758197</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>46.49351854473203</v>
+        <v>26.70719699064934</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>26.29305803102316</v>
+        <v>26.70719695214274</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>47.66979985559011</v>
+        <v>26.70719699180112</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>54.88784492418726</v>
+        <v>26.70719700402443</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>50.60737559716372</v>
+        <v>26.70719699949716</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>60.3215853446237</v>
+        <v>26.70719701544984</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>65.38741429585474</v>
+        <v>26.70719702025344</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>32.91897907459851</v>
+        <v>26.70719696773346</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>53.63839938790867</v>
+        <v>26.70719700723539</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>61.19619157800034</v>
+        <v>26.70719701907395</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>12.98715127209358</v>
+        <v>26.70719684992289</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>26.88932138537211</v>
+        <v>26.70719688282189</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>32.10862253544433</v>
+        <v>26.70719689384382</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>8.755718814673671</v>
+        <v>26.70719684810437</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>25.56172939572362</v>
+        <v>26.70719688445141</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>30.6872539501912</v>
+        <v>26.70719689610258</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>13.83034544501422</v>
+        <v>26.70719685653382</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>31.60772298923556</v>
+        <v>26.70719689306272</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>36.84290067969023</v>
+        <v>26.70719690395474</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>32.05314819054659</v>
+        <v>26.70719690544103</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>38.63798292013925</v>
+        <v>26.70719691926929</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>42.15022246290349</v>
+        <v>26.70719692406322</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>17.38942458480857</v>
+        <v>26.7071968783751</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>32.64975530701421</v>
+        <v>26.70719691360742</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>39.28155436932587</v>
+        <v>26.70719692449581</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>15.13371930618368</v>
+        <v>26.70719689686367</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>32.7824977366967</v>
+        <v>26.70719693491736</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>38.95191411119301</v>
+        <v>26.70719694714313</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>8.332928325481099</v>
+        <v>26.7071968931352</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>28.32603004400333</v>
+        <v>26.7071969343333</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>35.11311475663729</v>
+        <v>26.70719694756301</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>14.48571909739305</v>
+        <v>26.70719690579395</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>36.18466786476277</v>
+        <v>26.70719694752809</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>42.72460963138403</v>
+        <v>26.70719695984199</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>36.98219867731761</v>
+        <v>26.70719695774575</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>46.80589300685176</v>
+        <v>26.7071969748168</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>51.80305817980918</v>
+        <v>26.70719698046421</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>19.62854899570667</v>
+        <v>26.70719692510972</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>41.1475927310078</v>
+        <v>26.70719696768883</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>48.52166514900792</v>
+        <v>26.70719697957189</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>19.16921622751708</v>
+        <v>26.70719693593725</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>37.68381131404239</v>
+        <v>26.70719697420417</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>44.88997487921098</v>
+        <v>26.70719698695261</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>13.36802597457963</v>
+        <v>26.70719693236877</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>34.9123873607961</v>
+        <v>26.70719697385573</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>42.53273012195177</v>
+        <v>26.70719698756734</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>20.87508501948896</v>
+        <v>26.70719694682689</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>43.54541167917768</v>
+        <v>26.70719698877829</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>51.30366020860951</v>
+        <v>26.70719700160388</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>46.72186216339902</v>
+        <v>26.7071969971307</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>56.99903579736591</v>
+        <v>26.70719701390558</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>62.38519297869057</v>
+        <v>26.70719701898305</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>27.46198944382347</v>
+        <v>26.70719696319952</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>49.7868252411122</v>
+        <v>26.70719700522972</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>57.85977315317258</v>
+        <v>26.70719701768113</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_4/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_4/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.152</v>
+        <v>0.506</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.547</v>
+        <v>17.078</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.143</v>
+        <v>0.831</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30.688</v>
+        <v>11.79</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.034</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.077</v>
+        <v>8.840999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>26.70719684666695</v>
+        <v>9.07672341363747</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>26.70719687916269</v>
+        <v>19.68331779926127</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>26.70719689057148</v>
+        <v>22.39445465577766</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>26.70719684488498</v>
+        <v>-2.286103408159747</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>26.70719688073891</v>
+        <v>23.56465491172954</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>26.7071968928649</v>
+        <v>26.03769395251275</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>26.70719685301468</v>
+        <v>2.483826739635745</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>26.70719688917228</v>
+        <v>36.35226919219375</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>26.70719690044091</v>
+        <v>37.84287446363653</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>26.70719690249481</v>
+        <v>38.01329905025519</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>26.70719691652504</v>
+        <v>42.08926501792375</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>26.70719692160866</v>
+        <v>45.7281387416329</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>26.7071968764446</v>
+        <v>17.69567477008955</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>26.70719691098105</v>
+        <v>37.05953075118352</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>26.70719692211211</v>
+        <v>44.46861230054826</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>26.70719689721892</v>
+        <v>17.2409584434867</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>26.70719693494485</v>
+        <v>39.41035446881266</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>26.70719694764784</v>
+        <v>44.61234825725862</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>26.70719689336108</v>
+        <v>7.016527010444381</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>26.70719693409486</v>
+        <v>35.25407322977132</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>26.70719694794638</v>
+        <v>42.93304528186559</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>26.70719690572896</v>
+        <v>11.20236740949982</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>26.70719694715516</v>
+        <v>53.29439476519617</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>26.70719695993123</v>
+        <v>62.22803707144455</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>26.70719695802669</v>
+        <v>57.78860786855775</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>26.70719697539194</v>
+        <v>67.26730055621502</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>26.7071969813372</v>
+        <v>73.70296765515019</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>26.70719692611336</v>
+        <v>25.87948377950794</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>26.7071969682891</v>
+        <v>65.34709130539548</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>26.70719698036844</v>
+        <v>72.25489519607299</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>26.70719693661163</v>
+        <v>24.40708492333342</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>26.70719697456411</v>
+        <v>48.75683615286762</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>26.70719698778762</v>
+        <v>54.34803718120133</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>26.70719693288416</v>
+        <v>13.10350924681826</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>26.7071969739382</v>
+        <v>48.08077416123288</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>26.70719698823467</v>
+        <v>54.25572380765529</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>26.70719694706835</v>
+        <v>20.59598686523162</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>26.70719698873269</v>
+        <v>69.08982967737383</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>26.70719700202827</v>
+        <v>79.81503716464024</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>26.70719699758454</v>
+        <v>84.70138540947495</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>26.70719701470371</v>
+        <v>93.43975488742981</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>26.70719702002826</v>
+        <v>100.8053103825109</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>26.70719696442397</v>
+        <v>40.28936173546988</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>26.7071970059866</v>
+        <v>86.32128004356335</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>26.70719701870016</v>
+        <v>93.89271224475883</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>26.70719685128433</v>
+        <v>12.45433684452691</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>26.7071968841443</v>
+        <v>40.55584531300038</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>26.70719689506381</v>
+        <v>44.51736712104959</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>26.70719684954751</v>
+        <v>5.573152582433309</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>26.70719688596787</v>
+        <v>46.64242806745834</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>26.70719689748699</v>
+        <v>49.30145238384225</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>26.70719685789664</v>
+        <v>11.96605495635051</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>26.7071968944027</v>
+        <v>67.21351821305535</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>26.70719690515219</v>
+        <v>68.76944397488541</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>26.70719690618605</v>
+        <v>63.7312185068339</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>26.70719691994277</v>
+        <v>70.43359322248645</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>26.7071969245922</v>
+        <v>73.98916902007734</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>26.70719687915436</v>
+        <v>25.07270410903841</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>26.70719691432485</v>
+        <v>65.3407259110306</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>26.70719692514227</v>
+        <v>70.82698479389106</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>26.70719689723056</v>
+        <v>10.73057074676453</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>26.70719693521845</v>
+        <v>42.2671168998182</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>26.70719694733806</v>
+        <v>47.16900331689703</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>26.70719689350048</v>
+        <v>4.748037321500561</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>26.707196934723</v>
+        <v>41.35672378948846</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>26.70719694786266</v>
+        <v>47.76221407903228</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>26.70719690612934</v>
+        <v>8.707425499522481</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>26.70719694781887</v>
+        <v>63.79790586228656</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>26.70719695998022</v>
+        <v>70.89337461268718</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>26.70719695758295</v>
+        <v>64.40313402266582</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>26.70719697450558</v>
+        <v>76.02625523976886</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>26.70719697998306</v>
+        <v>78.65763439912017</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>26.70719692508</v>
+        <v>22.82077462327219</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>26.70719696753734</v>
+        <v>74.46711963014849</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>26.70719697937307</v>
+        <v>79.05687746392709</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>26.70719693688867</v>
+        <v>14.56197409021489</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>26.70719697512371</v>
+        <v>49.85281652922041</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>26.7071969877085</v>
+        <v>56.28520845954495</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>26.70719693335902</v>
+        <v>6.626213039902687</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>26.70719697490505</v>
+        <v>50.66130360558178</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>26.70719698845019</v>
+        <v>57.43987974662987</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>26.70719694791663</v>
+        <v>12.93275465012601</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>26.70719698986856</v>
+        <v>75.89799368233763</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>26.70719700248106</v>
+        <v>85.87799895544782</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>26.70719699776792</v>
+        <v>86.7288695371352</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>26.70719701434956</v>
+        <v>99.23676175709885</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>26.70719701928208</v>
+        <v>103.3335708004646</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>26.70719696391497</v>
+        <v>31.76310308552565</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>26.70719700589177</v>
+        <v>91.92393210078299</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>26.70719701823238</v>
+        <v>98.93449632769655</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>26.70719685021726</v>
+        <v>18.90621226618054</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>26.70719688304054</v>
+        <v>40.40115638594635</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>26.70719689390113</v>
+        <v>42.0452573501229</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>26.70719684817683</v>
+        <v>7.052811151072135</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>26.70719688455395</v>
+        <v>43.16340315550661</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>26.70719689603627</v>
+        <v>43.61794030807842</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>26.70719685660581</v>
+        <v>15.0275282060958</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>26.70719689308745</v>
+        <v>63.93955855371046</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>26.70719690379688</v>
+        <v>63.39639775965998</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>26.70719690508964</v>
+        <v>62.503858318543</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>26.70719691881108</v>
+        <v>68.39822746786813</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>26.70719692347138</v>
+        <v>70.1952346728652</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>26.70719687811333</v>
+        <v>31.01106866538051</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>26.70719691326621</v>
+        <v>61.65376387835057</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>26.70719692404382</v>
+        <v>66.08630594080108</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>26.70719689745731</v>
+        <v>21.38674982909016</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>26.70719693548975</v>
+        <v>49.10470889128829</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>26.70719694754645</v>
+        <v>51.58423868012569</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>26.70719689353681</v>
+        <v>10.25773335365551</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>26.70719693482093</v>
+        <v>45.76411204738152</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>26.70719694790534</v>
+        <v>49.55082583219567</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>26.70719690631535</v>
+        <v>16.63748153038854</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>26.70719694807016</v>
+        <v>68.80433305828521</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>26.70719696018825</v>
+        <v>73.33824199817339</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>26.70719695794013</v>
+        <v>70.03493162517509</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>26.70719697485585</v>
+        <v>78.83284599562265</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>26.70719698033281</v>
+        <v>80.45162680432088</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>26.70719692536846</v>
+        <v>32.21022858965549</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>26.70719696786842</v>
+        <v>76.79828080581483</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>26.70719697968488</v>
+        <v>80.58301427283432</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>26.70719693742237</v>
+        <v>23.84740081008734</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>26.70719697570042</v>
+        <v>55.54554011721599</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>26.70719698821495</v>
+        <v>58.99340604475244</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>26.70719693368221</v>
+        <v>10.80005769436038</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>26.70719697529771</v>
+        <v>54.34017716195729</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>26.707196988768</v>
+        <v>57.74769246390078</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>26.70719694839257</v>
+        <v>19.3539118996855</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>26.70719699041022</v>
+        <v>79.64028141684294</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>26.70719700296553</v>
+        <v>86.4862628714165</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>26.7071969984</v>
+        <v>92.00977187075324</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>26.70719701497243</v>
+        <v>101.591016203956</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>26.70719701989501</v>
+        <v>104.1292028698425</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>26.70719696448685</v>
+        <v>40.7915971491466</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>26.70719700649494</v>
+        <v>93.92192702055337</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>26.70719701879075</v>
+        <v>99.18747450856347</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>26.70719684456148</v>
+        <v>13.19766226295955</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>26.70719687654787</v>
+        <v>22.40677527041979</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>26.70719688773</v>
+        <v>24.96922911334721</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>26.70719684263393</v>
+        <v>1.361213214372274</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>26.70719687794361</v>
+        <v>25.58398058268277</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>26.70719688984344</v>
+        <v>28.23223086500527</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>26.70719685044064</v>
+        <v>5.913454873242436</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>26.70719688603905</v>
+        <v>37.13271968691305</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>26.70719689708009</v>
+        <v>38.62556882140638</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>26.70719689942814</v>
+        <v>39.47998371747763</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>26.7071969131923</v>
+        <v>42.7558206409094</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>26.70719691822621</v>
+        <v>47.72536349822771</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>26.70719687412906</v>
+        <v>28.82900285850575</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>26.7071969080516</v>
+        <v>45.8755523514488</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>26.7071969189945</v>
+        <v>51.85170922599296</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>26.70719689401934</v>
+        <v>17.47841351334051</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>26.70719693112984</v>
+        <v>36.96142435264074</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>26.70719694358732</v>
+        <v>41.99137376995309</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>26.7071968899924</v>
+        <v>8.673144126727161</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>26.7071969300971</v>
+        <v>34.45158464170766</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>26.7071969436858</v>
+        <v>42.29438672338028</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>26.70719690194777</v>
+        <v>11.01521476236152</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>26.70719694270822</v>
+        <v>49.06126127457148</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>26.70719695523806</v>
+        <v>57.9129148840532</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>26.7071969536603</v>
+        <v>52.37891556961198</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>26.70719697066802</v>
+        <v>61.15404975431225</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>26.70719697659048</v>
+        <v>68.55686697614905</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>26.70719692252547</v>
+        <v>28.81450056364558</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>26.7071969639655</v>
+        <v>64.93649142193121</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>26.70719697583939</v>
+        <v>69.90202563751583</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>26.70719693385084</v>
+        <v>26.6866298347133</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>26.70719697119004</v>
+        <v>48.46342686657973</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>26.70719698417157</v>
+        <v>53.63749486631087</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>26.70719692993089</v>
+        <v>14.7827494923572</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>26.70719697035462</v>
+        <v>47.58433873332711</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>26.70719698440021</v>
+        <v>53.75818523108904</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>26.70719694378</v>
+        <v>21.45473464812873</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>26.70719698479266</v>
+        <v>66.0378168191743</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>26.7071969978467</v>
+        <v>76.54260441829396</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>26.70719699371728</v>
+        <v>79.16274521930967</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>26.7071970105196</v>
+        <v>87.27124197281479</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>26.70719701580278</v>
+        <v>95.48206152826415</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>26.70719696132956</v>
+        <v>44.31000717926061</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>26.70719700218581</v>
+        <v>86.73574961325875</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>26.70719701470191</v>
+        <v>92.20984918079047</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>26.70719685266587</v>
+        <v>20.68475247721698</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>26.70719688506287</v>
+        <v>39.67224934041413</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>26.70719689622298</v>
+        <v>40.95615576871656</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>26.70719685101199</v>
+        <v>7.607335100802899</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>26.70719688683354</v>
+        <v>42.53511509113844</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>26.7071968986754</v>
+        <v>44.33488815852307</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>26.70719685925669</v>
+        <v>16.41162213509465</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>26.70719689531823</v>
+        <v>61.24683597619192</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>26.70719690632245</v>
+        <v>61.06306395986308</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>26.70719690775492</v>
+        <v>55.48866928746209</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>26.70719692161685</v>
+        <v>61.33105519245913</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>26.70719692655857</v>
+        <v>63.41521245227417</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>26.70719688168792</v>
+        <v>31.23158703358942</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>26.70719691589877</v>
+        <v>54.59337896693364</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>26.70719692686479</v>
+        <v>59.73447888744084</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>26.70719690342839</v>
+        <v>28.26837667732672</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>26.70719694095908</v>
+        <v>55.80006757589233</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>26.70719695332752</v>
+        <v>57.54284916931466</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>26.70719689979219</v>
+        <v>17.31704104147287</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>26.70719694041954</v>
+        <v>52.06903034345079</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>26.70719695389784</v>
+        <v>57.35635695517162</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>26.7071969122723</v>
+        <v>24.71469492437256</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>26.70719695351065</v>
+        <v>74.71786359227373</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>26.70719696593941</v>
+        <v>79.83784117828337</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>26.70719696361264</v>
+        <v>76.09869046906641</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>26.70719698076332</v>
+        <v>86.06758055084578</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>26.70719698656805</v>
+        <v>90.25565731710958</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>26.70719693182606</v>
+        <v>44.60948564363775</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>26.70719697360998</v>
+        <v>86.53593388528864</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>26.70719694166604</v>
+        <v>30.68140571667371</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>26.70719697938553</v>
+        <v>60.00940169634868</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>26.70719699231881</v>
+        <v>63.21680270162285</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>26.70719693809529</v>
+        <v>17.17849370918746</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>26.7071969789824</v>
+        <v>58.11809938604591</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>26.70719699296534</v>
+        <v>62.8315062267115</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>26.7071969523607</v>
+        <v>26.88391288183584</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>26.70719699379553</v>
+        <v>82.66210793832295</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>26.70719700679683</v>
+        <v>90.79915112066541</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>26.70719700196922</v>
+        <v>94.06526249037621</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>26.70719701890147</v>
+        <v>103.8251806912148</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>26.70719702410828</v>
+        <v>108.9412526046992</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>26.70719696897014</v>
+        <v>50.20267636066841</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>26.70719701015027</v>
+        <v>98.47895106832911</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>26.70719702266179</v>
+        <v>103.0672367328732</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>26.70719686143852</v>
+        <v>14.92422932610787</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>26.70719689154716</v>
+        <v>40.19049618682401</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>26.70719690144209</v>
+        <v>42.00147351909992</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>26.70719686013964</v>
+        <v>6.356205700082395</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>26.70719689359249</v>
+        <v>45.76327155146403</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>26.70719690402398</v>
+        <v>47.93813722380121</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>26.70719686789359</v>
+        <v>12.89537901753273</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>26.70719690138977</v>
+        <v>66.21691531200761</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>26.70719691112566</v>
+        <v>65.17680828938512</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>26.70719691168702</v>
+        <v>53.81927648729837</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>26.70719692426783</v>
+        <v>61.39591643239005</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>26.70719692844742</v>
+        <v>63.22287480140992</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>26.70719688680091</v>
+        <v>20.82186135485734</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>26.70719691861041</v>
+        <v>50.19607151096078</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>26.70719692844607</v>
+        <v>53.01983021678099</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>26.70719690788605</v>
+        <v>22.79097980853116</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>26.70719694283331</v>
+        <v>56.47560834154193</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>26.70719695372964</v>
+        <v>58.03527528181589</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>26.70719690479993</v>
+        <v>10.08166857304184</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>26.70719694281081</v>
+        <v>50.86474573356654</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>26.70719695464394</v>
+        <v>55.6585989406459</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>26.70719691667753</v>
+        <v>18.13713047935097</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>26.7071969550676</v>
+        <v>77.18482958109668</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>26.70719696600329</v>
+        <v>80.01600158877967</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>26.70719696340538</v>
+        <v>72.72424861826019</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>26.70719697891661</v>
+        <v>84.14339496866373</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>26.70719698384434</v>
+        <v>86.73094670770574</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>26.70719693335117</v>
+        <v>35.00527907650915</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>26.70719697217992</v>
+        <v>84.681152595245</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>26.70719698279436</v>
+        <v>86.02542900642871</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>26.70719694250409</v>
+        <v>23.81099517305566</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>26.70719697760153</v>
+        <v>59.42678255654839</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>26.70719698897344</v>
+        <v>63.12786433144626</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>26.70719693954257</v>
+        <v>8.405944600524677</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>26.7071969777634</v>
+        <v>54.61043013263131</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>26.70719699001925</v>
+        <v>60.23288737225109</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>26.70719695307907</v>
+        <v>18.26742381308108</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>26.70719699162783</v>
+        <v>82.65088644583552</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>26.70719700303486</v>
+        <v>89.10797268458117</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>26.70719699832049</v>
+        <v>89.00947059011375</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>26.70719701355993</v>
+        <v>100.2426019781152</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>26.70719701800852</v>
+        <v>102.909386198242</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>26.7071969671528</v>
+        <v>38.04528168819455</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>26.7071970054641</v>
+        <v>94.98424243373991</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>26.70719701662826</v>
+        <v>97.93587050969813</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>26.70719684689669</v>
+        <v>3.676884226780622</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>26.707196876748</v>
+        <v>12.05804816843139</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>26.70719688699833</v>
+        <v>13.61511562022131</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>26.70719684520662</v>
+        <v>-4.546945264997618</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>26.7071968782352</v>
+        <v>17.78277223984778</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>26.70719688908505</v>
+        <v>17.99952899558906</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>26.7071968525423</v>
+        <v>-2.835266002359372</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>26.70719688573499</v>
+        <v>27.35513484317453</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>26.70719689588306</v>
+        <v>27.08559936060772</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>26.7071968981695</v>
+        <v>31.77744994625954</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>26.70719691099024</v>
+        <v>36.64569464831085</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>26.70719691542176</v>
+        <v>38.35714878105163</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>26.70719687385407</v>
+        <v>11.94280843814771</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>26.7071969058084</v>
+        <v>28.89122563633876</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>26.70719691582159</v>
+        <v>31.88359829797412</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>26.7071968931794</v>
+        <v>13.28904658128075</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>26.70719692800553</v>
+        <v>34.31103005284697</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>26.70719693944141</v>
+        <v>40.02589583542674</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>26.70719688972766</v>
+        <v>5.788380715276094</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>26.70719692745794</v>
+        <v>33.57456710964804</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>26.7071969398705</v>
+        <v>40.72749262714564</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>26.70719690114391</v>
+        <v>8.746538719566161</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>26.7071969393721</v>
+        <v>49.78742014565866</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>26.70719695088533</v>
+        <v>57.61759369257314</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>26.70719694955128</v>
+        <v>52.61521794687768</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>26.70719696538352</v>
+        <v>61.66972386955359</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>26.70719697057168</v>
+        <v>65.26120000848742</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>26.70719691986789</v>
+        <v>21.46315799798658</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>26.70719695889342</v>
+        <v>58.72944716035842</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>26.70719696986469</v>
+        <v>63.90802031736863</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>26.70719693047703</v>
+        <v>18.56013409976627</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>26.70719696554022</v>
+        <v>43.31192260774644</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>26.70719697737366</v>
+        <v>48.65349646348798</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>26.70719692724993</v>
+        <v>9.941276375692377</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>26.70719696532377</v>
+        <v>45.51982993675384</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>26.7071969780446</v>
+        <v>50.42690778424022</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>26.70719694041257</v>
+        <v>16.44725565632159</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>26.70719697890031</v>
+        <v>65.37941873623336</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>26.7071969907832</v>
+        <v>73.88092280369618</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>26.70719698722963</v>
+        <v>80.02720825271271</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>26.70719700274341</v>
+        <v>89.20645450037466</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>26.70719700740576</v>
+        <v>92.01702293532605</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>26.70719695638309</v>
+        <v>36.95810913764883</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>26.70719699487449</v>
+        <v>82.16400614310182</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>26.70719700629637</v>
+        <v>87.74148786709162</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>26.70719684461022</v>
+        <v>2.577885020279364</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>26.70719687679228</v>
+        <v>9.459483262937814</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>26.70719688796689</v>
+        <v>12.73029349874225</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>26.70719684267193</v>
+        <v>-6.614054527365894</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>26.70719687825234</v>
+        <v>13.79392404629231</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>26.70719689011401</v>
+        <v>17.3296064301591</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>26.70719685047565</v>
+        <v>-5.488158635488048</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>26.70719688628728</v>
+        <v>24.50224365458126</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>26.70719689731591</v>
+        <v>26.44289723917882</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>26.70719689935192</v>
+        <v>25.01409444522926</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>26.70719691320195</v>
+        <v>28.78535897512578</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>26.70719691816812</v>
+        <v>33.11635635590568</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>26.70719687355574</v>
+        <v>7.541029140333926</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>26.70719690770015</v>
+        <v>22.35720587017146</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>26.70719691866009</v>
+        <v>27.09635127772803</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>26.70719689376088</v>
+        <v>0.0720124929901047</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>26.7071969310582</v>
+        <v>14.09530598626451</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>26.70719694347308</v>
+        <v>19.19133717238894</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>26.70719688980422</v>
+        <v>-5.056806152930712</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>26.70719693017231</v>
+        <v>14.25003651705109</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>26.70719694368336</v>
+        <v>21.89139933568768</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>26.70719690180942</v>
+        <v>-6.505145885525373</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>26.70719694277953</v>
+        <v>27.17548128419497</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>26.70719695526421</v>
+        <v>35.74227984126742</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>26.7071969535519</v>
+        <v>31.89991544960161</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>26.70719697070283</v>
+        <v>41.41134903957514</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>26.70719697656379</v>
+        <v>48.92030088564895</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>26.70719692208083</v>
+        <v>7.569388562038114</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>26.707196963728</v>
+        <v>38.45365850315491</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>26.70719697559326</v>
+        <v>41.83247766205191</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>26.70719693314695</v>
+        <v>6.459192788672446</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>26.70719697066205</v>
+        <v>23.19065719437904</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>26.70719698367253</v>
+        <v>31.65399971728548</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>26.70719692935603</v>
+        <v>-1.002693969944346</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>26.7071969700196</v>
+        <v>25.46242091599733</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>26.70719698407445</v>
+        <v>34.76328591651003</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>26.70719694322534</v>
+        <v>1.052654513619039</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>26.70719698442748</v>
+        <v>41.46712113116195</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>26.70719699751219</v>
+        <v>54.99619972223361</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>26.7071969932178</v>
+        <v>56.79273907124239</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>26.70719701018039</v>
+        <v>66.31152930771466</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>26.7071970154481</v>
+        <v>76.151416585585</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>26.70719696048734</v>
+        <v>18.69146068426181</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>26.70719700157704</v>
+        <v>57.01234642002012</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>26.70719701415579</v>
+        <v>63.02089668448401</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>26.70719686589224</v>
+        <v>13.86378849495688</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>26.70719689736875</v>
+        <v>39.34613885533881</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>26.70719690790578</v>
+        <v>43.80787528191524</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>26.70719686539305</v>
+        <v>9.385843553631656</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>26.70719690040869</v>
+        <v>52.1227783120696</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>26.70719691146829</v>
+        <v>54.39946760704915</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>26.70719687388299</v>
+        <v>17.32192897593943</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>26.70719690891401</v>
+        <v>71.91069044905626</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>26.70719691926961</v>
+        <v>72.96054570742542</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>26.70719691972085</v>
+        <v>67.82175589453597</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>26.70719693294189</v>
+        <v>74.40836383113903</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>26.70719693734828</v>
+        <v>75.89700148264815</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>26.70719689369422</v>
+        <v>36.23382814132802</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>26.70719692717695</v>
+        <v>68.06336237091953</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>26.7071969375699</v>
+        <v>76.33673507934112</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>26.70719690990082</v>
+        <v>10.00246799228102</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>26.7071969463381</v>
+        <v>39.71082299646289</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>26.70719695792235</v>
+        <v>43.32839902215979</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>26.70719690731034</v>
+        <v>1.321812528075682</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>26.70719694694392</v>
+        <v>39.27397792688863</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>26.70719695946341</v>
+        <v>43.70051878133384</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>26.70719691988369</v>
+        <v>6.85502173574049</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>26.7071969599122</v>
+        <v>62.27449317305697</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>26.7071969715184</v>
+        <v>66.8145790336153</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>26.70719696876055</v>
+        <v>60.9499934781131</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>26.70719698506872</v>
+        <v>70.18346344428154</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>26.70719699022079</v>
+        <v>71.23198761561939</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>26.70719693747096</v>
+        <v>26.09428483059252</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>26.70719697807902</v>
+        <v>71.76627812147326</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>26.70719698929464</v>
+        <v>75.06209562174868</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>26.70719694593738</v>
+        <v>13.59541153776482</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>26.70719698253453</v>
+        <v>46.90061998232447</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>26.70719699459706</v>
+        <v>52.56445323084905</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>26.70719694353647</v>
+        <v>6.232342033988161</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>26.70719698341047</v>
+        <v>51.16813075497876</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>26.70719699633614</v>
+        <v>56.02371383883299</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>26.70719695779755</v>
+        <v>12.83437184781497</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>26.70719699799403</v>
+        <v>75.83900518704677</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>26.70719701006585</v>
+        <v>83.93859790314414</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>26.70719700513763</v>
+        <v>85.82810900254283</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>26.70719702109737</v>
+        <v>95.69834623086329</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>26.70719702575148</v>
+        <v>96.85165412418944</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>26.70719697267204</v>
+        <v>36.36672376432426</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>26.70719701272938</v>
+        <v>90.70431071427963</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>26.70719702447333</v>
+        <v>96.63144653522407</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>26.70719683923184</v>
+        <v>4.950937195497893</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>26.70719686882103</v>
+        <v>11.48257986693167</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>26.70719687891782</v>
+        <v>15.01906720269118</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>26.70719683658141</v>
+        <v>-3.20940176540757</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>26.70719686921274</v>
+        <v>14.09025892571987</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>26.70719687991137</v>
+        <v>16.24157509119099</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>26.70719684348935</v>
+        <v>-1.71964918552036</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>26.7071968763222</v>
+        <v>24.14595839999017</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>26.70719688633159</v>
+        <v>26.43842166130888</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>26.70719688879628</v>
+        <v>26.50871675831356</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>26.70719690134083</v>
+        <v>30.22563936850412</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>26.70719690577284</v>
+        <v>34.56813650321615</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>26.70719686468925</v>
+        <v>5.884942036691022</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>26.70719689651007</v>
+        <v>24.32986421358046</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>26.70719690643351</v>
+        <v>27.17302162928247</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>26.70719688363556</v>
+        <v>8.397362939147165</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>26.70719691806508</v>
+        <v>24.69981351625441</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>26.70719692939149</v>
+        <v>32.30835928643545</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>26.70719687937443</v>
+        <v>3.737186916574323</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>26.70719691658839</v>
+        <v>24.60677651669705</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>26.70719692887376</v>
+        <v>33.05665309267827</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>26.70719689028213</v>
+        <v>4.802222146451967</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>26.70719692802016</v>
+        <v>37.8721502371954</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>26.70719693944469</v>
+        <v>48.30112689472787</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>26.70719693835163</v>
+        <v>39.10006857076163</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>26.70719695383685</v>
+        <v>48.56284930340421</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>26.70719695909457</v>
+        <v>53.3412781467829</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>26.70719690904163</v>
+        <v>11.36969351580722</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>26.70719694764438</v>
+        <v>44.04274214179074</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>26.7071969586465</v>
+        <v>50.42191264587537</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>26.70719692158939</v>
+        <v>17.8637020431572</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>26.70719695630741</v>
+        <v>37.4692195257502</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>26.70719696805227</v>
+        <v>44.70835994362733</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>26.7071969175825</v>
+        <v>10.74505730739249</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>26.70719695517163</v>
+        <v>38.60354163836895</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>26.70719696782658</v>
+        <v>45.17220987133322</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>26.70719693028003</v>
+        <v>15.73122090290845</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>26.70719696832518</v>
+        <v>56.0863208594355</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>26.70719698014194</v>
+        <v>67.15138455733387</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>26.70719697681536</v>
+        <v>67.22086387285248</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>26.707196992026</v>
+        <v>76.48673198823931</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>26.70719699675645</v>
+        <v>84.33136354933006</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>26.70719694625337</v>
+        <v>29.10571556912595</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>26.70719698442582</v>
+        <v>68.79706934529938</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>26.70719699587295</v>
+        <v>76.94384888327994</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>26.70719684596632</v>
+        <v>-2.813837935921732</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>26.70719687716663</v>
+        <v>12.44911345210113</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>26.70719688742033</v>
+        <v>12.79609160291668</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>26.70719684333391</v>
+        <v>-14.99873943503889</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>26.70719687787869</v>
+        <v>12.37001848532616</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>26.70719688875591</v>
+        <v>12.32732907268955</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>26.70719685095782</v>
+        <v>-11.79430195651179</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>26.70719688562587</v>
+        <v>28.65509206101108</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>26.70719689574603</v>
+        <v>27.2707657854509</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>26.70719689730193</v>
+        <v>26.58660376377438</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>26.70719691032423</v>
+        <v>30.79589347969588</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>26.70719691477716</v>
+        <v>32.16314237476119</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>26.70719687179074</v>
+        <v>0.8995791344053075</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>26.70719690511044</v>
+        <v>24.54936812891323</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>26.70719691534455</v>
+        <v>25.79347972896572</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>26.70719689418642</v>
+        <v>15.75567883123897</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>26.70719693041643</v>
+        <v>40.09256055614236</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>26.70719694183722</v>
+        <v>41.58823777204761</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>26.70719688996069</v>
+        <v>5.973249452681493</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>26.70719692928037</v>
+        <v>37.00830601745945</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>26.70719694172222</v>
+        <v>40.4943875947251</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>26.70719690190941</v>
+        <v>9.799728953611215</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>26.7071969416879</v>
+        <v>56.95352522113882</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>26.70719695318071</v>
+        <v>60.83282708414049</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>26.70719695125161</v>
+        <v>59.02430410694156</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>26.70719696731794</v>
+        <v>67.37899952849804</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>26.7071969725676</v>
+        <v>68.77091302477285</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>26.70719692027906</v>
+        <v>24.98978983552601</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>26.7071969607263</v>
+        <v>66.20821031486258</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>26.70719697196678</v>
+        <v>67.94708121689149</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>26.70719693291945</v>
+        <v>22.20118622058004</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>26.70719696941583</v>
+        <v>50.39602793224339</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>26.70719698127558</v>
+        <v>53.220685978265</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>26.70719692880274</v>
+        <v>8.247808423125498</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>26.70719696846248</v>
+        <v>47.35588285371949</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>26.70719698127619</v>
+        <v>50.96710316086723</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>26.70719694265961</v>
+        <v>15.08646434336146</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>26.70719698272159</v>
+        <v>70.04726162520902</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>26.70719699463807</v>
+        <v>76.39355767775442</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>26.70719699042731</v>
+        <v>81.91693864319566</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>26.70719700621254</v>
+        <v>91.14625787147712</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>26.70719701092701</v>
+        <v>93.87828107012029</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>26.70719695814815</v>
+        <v>34.81711061772392</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>26.70719699816491</v>
+        <v>84.64374790541953</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>26.70719700987575</v>
+        <v>87.58296721279328</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>26.70719683741201</v>
+        <v>7.32281634539029</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>26.70719686803502</v>
+        <v>14.19140592886028</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>26.7071968783807</v>
+        <v>17.13773320815631</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>26.70719683467554</v>
+        <v>-3.253645011957317</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>26.70719686854426</v>
+        <v>15.66060416538448</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>26.70719687950393</v>
+        <v>17.32653117735903</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>26.70719684188107</v>
+        <v>-1.157372827539376</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>26.70719687592213</v>
+        <v>27.53207329644561</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>26.70719688614555</v>
+        <v>29.00462074493282</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>26.70719688860985</v>
+        <v>29.67329206836178</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>26.70719690155833</v>
+        <v>32.3738802699444</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>26.70719690609077</v>
+        <v>35.39111385868362</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>26.70719686394924</v>
+        <v>13.39192762009832</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>26.70719689679438</v>
+        <v>28.29367580509911</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>26.70719690703095</v>
+        <v>31.03536680341507</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>26.70719688166555</v>
+        <v>2.20252156629925</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>26.70719691718012</v>
+        <v>14.49780741651972</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>26.70719692878492</v>
+        <v>20.87504240029054</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>26.70719687705827</v>
+        <v>-4.414775624390668</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>26.70719691554768</v>
+        <v>13.24592612745527</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>26.70719692813472</v>
+        <v>20.6362620964336</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>26.70719688833688</v>
+        <v>-4.283208086960158</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>26.70719692732942</v>
+        <v>26.81292887340685</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>26.70719693901226</v>
+        <v>35.90471893243051</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>26.70719693799944</v>
+        <v>30.44573535574476</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>26.70719695394463</v>
+        <v>35.58545978903592</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>26.70719695928062</v>
+        <v>38.67193795555465</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>26.7071969080531</v>
+        <v>6.559676190346991</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>26.70719694783111</v>
+        <v>33.93965146176348</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>26.70719695916856</v>
+        <v>37.88795946684025</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>26.7071969227887</v>
+        <v>16.61405208359492</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>26.7071969586711</v>
+        <v>34.02695491681715</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>26.70719697063508</v>
+        <v>39.40238922373594</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>26.7071969184425</v>
+        <v>3.983839854685868</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>26.7071969573891</v>
+        <v>30.87321544909702</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>26.70719697026943</v>
+        <v>35.9683059679125</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>26.70719693179721</v>
+        <v>9.776885390309591</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>26.70719697119568</v>
+        <v>50.4726087900374</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>26.70719698320827</v>
+        <v>59.71762295622565</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>26.70719697989668</v>
+        <v>62.5310080258219</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>26.70719699552631</v>
+        <v>68.90211843240287</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>26.70719700029309</v>
+        <v>71.50578725711368</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>26.70719694851916</v>
+        <v>26.11394556093819</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>26.70719698793892</v>
+        <v>62.57687894561205</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>26.70719699966685</v>
+        <v>66.52314568631036</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>26.70719683326578</v>
+        <v>0.2633443600722423</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>26.70719686237979</v>
+        <v>2.672410684263294</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>26.70719687216959</v>
+        <v>2.726470494637464</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>26.70719682996668</v>
+        <v>-8.496739805893242</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>26.70719686214829</v>
+        <v>3.910898515218136</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>26.70719687255377</v>
+        <v>3.485563846133786</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>26.70719683638074</v>
+        <v>-9.991202710870134</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>26.70719686873499</v>
+        <v>11.44024330553501</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>26.70719687841262</v>
+        <v>10.3303414921109</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>26.7071968812555</v>
+        <v>12.50895732792372</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>26.70719689353218</v>
+        <v>12.75751782262234</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>26.70719689785214</v>
+        <v>15.94679178021122</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>26.70719685805455</v>
+        <v>2.444998009276585</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>26.70719688924206</v>
+        <v>12.17330640533318</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>26.7071968989695</v>
+        <v>11.99405488710119</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>26.7071968764024</v>
+        <v>-2.12002757639641</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>26.70719691020486</v>
+        <v>5.930387892275412</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>26.70719692119053</v>
+        <v>8.366505934822079</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>26.70719687138082</v>
+        <v>-6.396626907010877</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>26.70719690800828</v>
+        <v>6.261205133401688</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>26.7071969199657</v>
+        <v>10.13499147572165</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>26.70719688173262</v>
+        <v>-9.248152611223972</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>26.70719691884297</v>
+        <v>15.15812134596409</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>26.70719692990658</v>
+        <v>20.24329013467052</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>26.70719692938887</v>
+        <v>16.73839223239876</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>26.70719694450626</v>
+        <v>20.9830771382906</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>26.707196949615</v>
+        <v>23.01246020786891</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>26.70719690106533</v>
+        <v>0.06703573920548678</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>26.70719693888976</v>
+        <v>21.14325184113709</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>26.7071969496637</v>
+        <v>21.83296559582895</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>26.70719691669857</v>
+        <v>15.07718862908226</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>26.70719695084796</v>
+        <v>27.59498546609947</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>26.70719696222105</v>
+        <v>29.80632107363613</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>26.7071969118837</v>
+        <v>2.828228711374557</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>26.7071969489422</v>
+        <v>24.22147483718894</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>26.70719696123546</v>
+        <v>27.24860480866427</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>26.70719692430412</v>
+        <v>6.449334445356207</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>26.70719696180257</v>
+        <v>39.50198618987538</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>26.70719697323171</v>
+        <v>45.44546395760895</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>26.70719697041911</v>
+        <v>49.20558170714194</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>26.70719698527999</v>
+        <v>53.9478121468475</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>26.70719698985158</v>
+        <v>56.632035737436</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>26.7071969407153</v>
+        <v>20.74675336234701</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>26.70719697819747</v>
+        <v>50.02375295992042</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>26.7071969894152</v>
+        <v>51.67618711890518</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>26.70719684579932</v>
+        <v>20.2027848350799</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>26.7071968782959</v>
+        <v>31.47149091572919</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>26.70719688966193</v>
+        <v>35.08839610131028</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>26.70719684375058</v>
+        <v>6.358929989198089</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>26.70719687961931</v>
+        <v>32.04996326986201</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>26.70719689167256</v>
+        <v>35.10799749322871</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>26.70719685198182</v>
+        <v>12.37181232701225</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>26.70719688814707</v>
+        <v>47.14959708592116</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>26.70719689937354</v>
+        <v>49.27624572878005</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>26.70719690152649</v>
+        <v>49.77185884544544</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>26.70719691548721</v>
+        <v>53.11793153884125</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>26.7071969205462</v>
+        <v>56.19438260110667</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>26.70719687551768</v>
+        <v>32.422841813404</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>26.70719691012749</v>
+        <v>52.04541261223097</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>26.7071969212093</v>
+        <v>58.31637220370666</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>26.70719689426178</v>
+        <v>12.01212264671573</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>26.70719693192677</v>
+        <v>30.58831755194858</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>26.70719694455894</v>
+        <v>34.81042260510361</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>26.70719689005948</v>
+        <v>-0.321216752592882</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>26.70719693075228</v>
+        <v>23.52172023266414</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>26.70719694449086</v>
+        <v>29.83690024106955</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>26.70719690243314</v>
+        <v>2.525853151445013</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>26.70719694380033</v>
+        <v>40.79903274783626</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>26.70719695650828</v>
+        <v>48.25598317479844</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>26.70719695483636</v>
+        <v>44.83576261836776</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>26.70719697209569</v>
+        <v>51.62134502304856</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>26.70719697800367</v>
+        <v>55.36488185772642</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>26.70719692309721</v>
+        <v>20.14664183412543</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>26.70719696523696</v>
+        <v>54.68344087868648</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>26.70719697727069</v>
+        <v>58.43795002910211</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>26.70719693450215</v>
+        <v>23.4438842460991</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>26.70719697241373</v>
+        <v>45.17260832247779</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>26.70719698557636</v>
+        <v>50.39432609910766</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>26.70719693047933</v>
+        <v>9.448619619754639</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>26.70719697151684</v>
+        <v>41.1196655521204</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>26.70719698571128</v>
+        <v>46.34572256921207</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>26.70719694473709</v>
+        <v>16.57811753433839</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>26.70719698637079</v>
+        <v>62.39897804903183</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>26.70719699960099</v>
+        <v>72.25800783484982</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>26.70719699535685</v>
+        <v>77.16972050696921</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>26.70719701237219</v>
+        <v>84.06180941074572</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>26.70719701766338</v>
+        <v>88.69310031303684</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>26.70719696230248</v>
+        <v>37.41249651205784</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>26.70719700385891</v>
+        <v>79.11545031698734</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>26.70719701651272</v>
+        <v>84.74684094603639</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>26.70719684817118</v>
+        <v>18.09993166583066</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>26.70719687921643</v>
+        <v>39.87401931871808</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>26.70719688960081</v>
+        <v>44.38839720258098</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>26.70719684588347</v>
+        <v>8.689527344190191</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>26.70719688022594</v>
+        <v>43.47350078231342</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>26.70719689119471</v>
+        <v>46.14329302213483</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>26.70719685360176</v>
+        <v>15.85029612658328</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>26.70719688808026</v>
+        <v>61.82517759272675</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>26.70719689832185</v>
+        <v>64.80811894319261</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>26.70719689985376</v>
+        <v>63.45391763062095</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>26.70719691288934</v>
+        <v>68.32151041262406</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>26.70719691738876</v>
+        <v>72.40417941389185</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>26.70719687444743</v>
+        <v>28.23656506506197</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>26.70719690779888</v>
+        <v>62.13797913884521</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>26.70719691806181</v>
+        <v>69.13244861205325</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>26.70719689172065</v>
+        <v>11.42995587088068</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>26.70719692762677</v>
+        <v>36.82850302481687</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>26.70719693921069</v>
+        <v>42.72821846878758</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>26.70719688765697</v>
+        <v>4.756730797613525</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>26.70719692657115</v>
+        <v>36.09955887770614</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>26.70719693912372</v>
+        <v>42.62043056711762</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>26.70719689940448</v>
+        <v>7.781475784090979</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>26.70719693880351</v>
+        <v>54.08556719109949</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>26.70719695044361</v>
+        <v>62.76679264249236</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>26.70719694860677</v>
+        <v>56.77594940242444</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>26.70719696462334</v>
+        <v>66.0727265784389</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>26.70719696994985</v>
+        <v>68.29475567199455</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>26.70719691797817</v>
+        <v>18.92567667692065</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>26.70719695819342</v>
+        <v>62.38537983083782</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>26.70719696949993</v>
+        <v>69.63480496070383</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>26.70719693048116</v>
+        <v>15.75051836981024</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>26.70719696666712</v>
+        <v>44.79125362796329</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>26.70719697868465</v>
+        <v>51.57687007798594</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>26.70719692661315</v>
+        <v>7.321101819435647</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>26.70719696587733</v>
+        <v>46.26888801790936</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>26.70719697881896</v>
+        <v>52.37910043274424</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>26.70719694025144</v>
+        <v>13.33587939682911</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>26.70719697994657</v>
+        <v>67.21498204032852</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>26.70719699200464</v>
+        <v>78.02024767702468</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>26.70719698791286</v>
+        <v>79.32559192383992</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>26.70719700363291</v>
+        <v>89.92465397662278</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>26.70719700841214</v>
+        <v>95.23526495287977</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>26.70719695595536</v>
+        <v>29.67720880169394</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>26.70719699574599</v>
+        <v>80.84582196076111</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>26.70719700752013</v>
+        <v>90.7498880091665</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>26.70719685493001</v>
+        <v>15.08564026456616</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>26.70719688853655</v>
+        <v>35.27291757457095</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>26.70719690016656</v>
+        <v>39.26155267229565</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>26.70719685378593</v>
+        <v>6.965320192678064</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>26.7071968909721</v>
+        <v>43.77679846531357</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>26.70719690328024</v>
+        <v>47.14877066123311</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>26.70719686253386</v>
+        <v>13.62657308283858</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>26.70719689993866</v>
+        <v>60.86759602382298</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>26.70719691139114</v>
+        <v>62.75290074171301</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>26.70719691259853</v>
+        <v>58.90829843582909</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>26.70719692696569</v>
+        <v>63.68107402507398</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>26.70719693205039</v>
+        <v>67.21453962684697</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>26.7071968853983</v>
+        <v>30.44929423327428</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>26.70719692104256</v>
+        <v>59.12409900808192</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>26.70719693243953</v>
+        <v>68.48097427459433</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>26.70719690490873</v>
+        <v>14.32773278290354</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>26.7071969438067</v>
+        <v>42.25852188804328</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>26.70719695666874</v>
+        <v>46.38831204545428</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>26.70719690152459</v>
+        <v>4.820230482804615</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>26.70719694361807</v>
+        <v>39.38673998623818</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>26.70719695760967</v>
+        <v>45.91095379259509</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>26.70719691457209</v>
+        <v>9.234874687730587</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>26.70719695729799</v>
+        <v>60.29357623390908</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>26.70719697020743</v>
+        <v>67.41978307090768</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>26.70719696762106</v>
+        <v>62.93791501812474</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>26.70719698538436</v>
+        <v>72.39346498470655</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>26.70719699133386</v>
+        <v>77.62476859143761</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>26.70719693455983</v>
+        <v>26.87496717680278</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>26.70719697795397</v>
+        <v>72.88047052318569</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>26.70719699024112</v>
+        <v>78.48206146082765</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>26.70719694411393</v>
+        <v>18.04234989734348</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>26.70719698320523</v>
+        <v>48.14399218116048</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>26.70719699662247</v>
+        <v>53.79837383533079</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>26.70719694085368</v>
+        <v>8.753704626347808</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>26.70719698322437</v>
+        <v>49.71998110882385</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>26.70719699770108</v>
+        <v>55.97908577087728</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>26.70719695571072</v>
+        <v>15.12102854064523</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>26.70719699863583</v>
+        <v>72.52870645570326</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>26.70719701210455</v>
+        <v>82.79197606264682</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>26.70719700699223</v>
+        <v>86.77943200833442</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>26.7071970244837</v>
+        <v>95.98864890917577</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>26.70719702982418</v>
+        <v>102.3299603148941</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>26.70719697266867</v>
+        <v>36.89548839063718</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>26.70719701543872</v>
+        <v>90.05515539452171</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>26.70719702839099</v>
+        <v>97.3548174341702</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>26.70719685339061</v>
+        <v>22.05736572535499</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>26.70719688515907</v>
+        <v>35.92957186311797</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>26.70719689629285</v>
+        <v>39.64561441023073</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>26.70719685221195</v>
+        <v>18.95619792519528</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>26.70719688731266</v>
+        <v>49.38722166794188</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>26.707196899111</v>
+        <v>53.13393117898357</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>26.7071968601467</v>
+        <v>21.12514945472843</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>26.70719689552659</v>
+        <v>59.43350727058515</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>26.70719690650352</v>
+        <v>61.83649324777767</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>26.70719690813847</v>
+        <v>58.55258972577188</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>26.70719692184226</v>
+        <v>62.95815842150002</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>26.70719692678718</v>
+        <v>66.38718176127941</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>26.70719688272625</v>
+        <v>37.87533738417822</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>26.70719691636364</v>
+        <v>57.30292864327706</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>26.70719692727411</v>
+        <v>66.76319855379816</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>26.70719690246487</v>
+        <v>20.08507638647381</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>26.70719693923737</v>
+        <v>42.11798379173391</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>26.70719695160707</v>
+        <v>46.80141686089636</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>26.70719689931034</v>
+        <v>21.78421622866294</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>26.70719693904997</v>
+        <v>50.25539034804031</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>26.70719695250581</v>
+        <v>57.94042667521272</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>26.70719691124419</v>
+        <v>17.55311372061481</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>26.70719695165991</v>
+        <v>60.28064039311893</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>26.70719696408653</v>
+        <v>68.5779530246308</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>26.70719696191534</v>
+        <v>62.76607647720045</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>26.70719697885582</v>
+        <v>71.64793994247967</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>26.70719698466286</v>
+        <v>77.75336067261895</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>26.70719693083573</v>
+        <v>33.54959050890884</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>26.7071969718747</v>
+        <v>70.53265092202768</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>26.70719698365027</v>
+        <v>77.54648170428406</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>26.707196940444</v>
+        <v>24.39586580115348</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>26.70719697742182</v>
+        <v>48.09500026920364</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>26.70719699032021</v>
+        <v>53.56680061493223</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>26.70719693734775</v>
+        <v>25.07746047536388</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>26.70719697736414</v>
+        <v>59.55492835144511</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>26.70719699128832</v>
+        <v>66.06910947126939</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>26.70719695106078</v>
+        <v>23.79886484013847</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>26.70719699169027</v>
+        <v>72.15813185045202</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>26.70719700465085</v>
+        <v>82.8134813117926</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>26.70719700000345</v>
+        <v>86.27527648792685</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>26.70719701671841</v>
+        <v>94.66301825547181</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>26.70719702191251</v>
+        <v>101.811930152098</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>26.7071969677084</v>
+        <v>43.98256503812493</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>26.70719700815015</v>
+        <v>87.11586396577707</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>26.70719702057862</v>
+        <v>95.26707748451314</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>26.70719684803041</v>
+        <v>14.68622832075108</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>26.70719688110577</v>
+        <v>35.78648662853477</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>26.70719689217886</v>
+        <v>40.60035521847611</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>26.7071968459187</v>
+        <v>5.770283432640802</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>26.70719688244973</v>
+        <v>40.30981911711574</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>26.70719689416925</v>
+        <v>43.51431701245441</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>26.70719685439964</v>
+        <v>12.36191202370103</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>26.70719689112843</v>
+        <v>59.28927316818885</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>26.70719690207036</v>
+        <v>62.52705249322295</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>26.70719690355407</v>
+        <v>62.58635687846158</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>26.70719691741524</v>
+        <v>67.68689248994886</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>26.70719692225419</v>
+        <v>70.08653046672526</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>26.70719687633773</v>
+        <v>23.65099220349187</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>26.70719691177684</v>
+        <v>57.95026747896644</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>26.70719692273483</v>
+        <v>65.23781446697447</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>26.70719689498484</v>
+        <v>10.89491839267767</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>26.70719693326615</v>
+        <v>37.70081211287626</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>26.70719694552628</v>
+        <v>41.58651540197388</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>26.70719689098976</v>
+        <v>2.948355633803061</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>26.70719693242097</v>
+        <v>35.96329212266762</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>26.70719694571411</v>
+        <v>40.61844874708202</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>26.70719690372133</v>
+        <v>5.875059599629445</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>26.70719694570977</v>
+        <v>54.88809850061574</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>26.70719695805591</v>
+        <v>61.54662790627827</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>26.70719695594914</v>
+        <v>57.81851439349641</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>26.70719697303666</v>
+        <v>66.31448190510913</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>26.70719697875626</v>
+        <v>68.34239192710243</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>26.70719692313105</v>
+        <v>16.57872434398769</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>26.70719696591215</v>
+        <v>62.248578070809</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>26.70719697791589</v>
+        <v>68.16409528053302</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>26.70719693483857</v>
+        <v>15.42191911349693</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>26.70719697335753</v>
+        <v>44.47556286079117</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>26.70719698614106</v>
+        <v>50.20627198749221</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>26.70719693104317</v>
+        <v>6.310649158350241</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>26.70719697279265</v>
+        <v>45.38209907599412</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>26.70719698656039</v>
+        <v>50.30670664943774</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>26.70719694563764</v>
+        <v>11.11405609925326</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>26.70719698787314</v>
+        <v>66.3235343705049</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>26.70719700072836</v>
+        <v>76.26059568014701</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>26.7071969962088</v>
+        <v>81.84917677396248</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>26.70719701301852</v>
+        <v>91.21257133399885</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>26.70719701814629</v>
+        <v>96.05863103722538</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>26.70719696206148</v>
+        <v>27.98871967674729</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>26.70719700434009</v>
+        <v>80.70998668583275</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>26.70719701687903</v>
+        <v>89.63868564853249</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>26.70719684547315</v>
+        <v>10.20903923601021</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>26.70719687548699</v>
+        <v>18.43813075792064</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>26.70719688586212</v>
+        <v>21.25691281922192</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>26.70719684349689</v>
+        <v>-0.8786130819552049</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>26.70719687659247</v>
+        <v>22.36197522600589</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>26.70719688761852</v>
+        <v>23.54196497428281</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>26.70719685084194</v>
+        <v>3.398606337672621</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>26.70719688420555</v>
+        <v>32.30975235942982</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>26.70719689448964</v>
+        <v>35.16713599574953</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>26.70719689685468</v>
+        <v>34.97168856339523</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>26.70719690973644</v>
+        <v>38.88673631177539</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>26.70719691445293</v>
+        <v>42.48022464014032</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>26.70719687275034</v>
+        <v>16.9926885967713</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>26.70719690477282</v>
+        <v>32.57324556849439</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>26.70719691493082</v>
+        <v>36.6072297491106</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>26.70719689186046</v>
+        <v>12.82147531049344</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>26.70719692676359</v>
+        <v>32.5153305761297</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>26.70719693838219</v>
+        <v>39.33411776931803</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>26.70719688808769</v>
+        <v>6.05532539755778</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>26.70719692579052</v>
+        <v>32.9666802136871</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>26.70719693844753</v>
+        <v>40.2010633304125</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>26.70719689937379</v>
+        <v>8.797674687609641</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>26.70719693767565</v>
+        <v>46.15821591786616</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>26.70719694939092</v>
+        <v>57.46205888206443</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>26.70719694806514</v>
+        <v>50.91500119135052</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>26.70719696402411</v>
+        <v>59.05361719320308</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>26.70719696950461</v>
+        <v>65.17282474368551</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>26.70719691854094</v>
+        <v>20.05332617985649</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>26.70719695763614</v>
+        <v>55.70005782781126</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>26.70719696874488</v>
+        <v>63.06670557578111</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>26.70719692919098</v>
+        <v>20.52432390154585</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>26.7071969643305</v>
+        <v>42.37604556399538</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>26.7071969764158</v>
+        <v>49.67804638406064</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>26.70719692551819</v>
+        <v>11.34508731966033</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>26.70719696355713</v>
+        <v>44.6310623444497</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>26.70719697660531</v>
+        <v>50.51509050706912</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>26.70719693852458</v>
+        <v>17.11857825393605</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>26.70719697707361</v>
+        <v>60.58654783302904</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>26.707196989249</v>
+        <v>73.62434356797004</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>26.70719698550609</v>
+        <v>73.86567815660158</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>26.70719700124567</v>
+        <v>81.51880186617083</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>26.70719700615165</v>
+        <v>89.21287545524766</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>26.70719695480331</v>
+        <v>32.43462895367193</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>26.70719699334047</v>
+        <v>74.53762574992318</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>26.70719700500747</v>
+        <v>82.64233688190299</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>26.70719685132834</v>
+        <v>9.700478223103206</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>26.70719688290087</v>
+        <v>20.86404953442704</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>26.70719689400526</v>
+        <v>25.29934280405894</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>26.70719685003003</v>
+        <v>2.277464977237088</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>26.70719688489093</v>
+        <v>29.09074237190908</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>26.70719689667212</v>
+        <v>33.75161713597767</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>26.70719685788214</v>
+        <v>5.464799399894602</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>26.70719689303612</v>
+        <v>39.96472216670184</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>26.70719690399142</v>
+        <v>43.36720604650414</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>26.70719690585736</v>
+        <v>42.30875628089819</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>26.70719691951292</v>
+        <v>46.57194192209931</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>26.70719692445907</v>
+        <v>50.72959844534699</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>26.70719688063187</v>
+        <v>22.47016847719338</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>26.70719691412162</v>
+        <v>40.32557400641384</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>26.70719692497527</v>
+        <v>50.1170912570261</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>26.7071968999738</v>
+        <v>8.405221966162415</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>26.70719693653642</v>
+        <v>28.07572739759941</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>26.70719694890655</v>
+        <v>34.82039872864075</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>26.7071968966957</v>
+        <v>5.925880786653465</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>26.70719693619112</v>
+        <v>31.28112369572402</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>26.70719694965907</v>
+        <v>41.25933306572595</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>26.70719690852942</v>
+        <v>3.526128844361345</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>26.70719694870498</v>
+        <v>42.77619693424788</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>26.70719696113727</v>
+        <v>53.45554520329888</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>26.70719695917004</v>
+        <v>47.91494308421517</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>26.7071969760532</v>
+        <v>56.61705806030819</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>26.70719698186996</v>
+        <v>64.17414591321996</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>26.70719692829861</v>
+        <v>18.8589481096134</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>26.70719696915842</v>
+        <v>54.03397487921131</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>26.70719698090773</v>
+        <v>62.86389135382743</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>26.70719693798621</v>
+        <v>12.74146277664987</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>26.70719697476054</v>
+        <v>34.03271184647051</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>26.70719698765189</v>
+        <v>41.28437708204854</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>26.7071969347696</v>
+        <v>8.504565941060306</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>26.70719697455187</v>
+        <v>39.84129739412073</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>26.70719698847769</v>
+        <v>48.27196748691417</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>26.70719694838116</v>
+        <v>9.180236867768137</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>26.70719698877868</v>
+        <v>54.05525764337097</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>26.70719700173426</v>
+        <v>66.80955462226245</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>26.70719699728964</v>
+        <v>70.56728531883233</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>26.70719701394648</v>
+        <v>78.47248720160573</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>26.7071970191447</v>
+        <v>87.08045788812149</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>26.70719696519972</v>
+        <v>28.71163127376271</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>26.70719700546203</v>
+        <v>69.77839230764209</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>26.70719701785566</v>
+        <v>79.78472318260238</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>26.707196859337</v>
+        <v>19.0842264117814</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>26.70719689033037</v>
+        <v>37.49649423493418</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>26.70719690089623</v>
+        <v>41.28618536650183</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>26.70719685825386</v>
+        <v>10.0441453657253</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>26.70719689264466</v>
+        <v>47.78520017162801</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>26.70719690377445</v>
+        <v>49.05070038270495</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>26.70719686633543</v>
+        <v>17.58931242755942</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>26.70719690083292</v>
+        <v>62.61310684667666</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>26.70719691125727</v>
+        <v>64.09669668612057</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>26.70719691247574</v>
+        <v>61.23444314772637</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>26.70719692562101</v>
+        <v>66.09823921959675</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>26.7071969301909</v>
+        <v>68.33420474482259</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>26.70719688728918</v>
+        <v>39.67122438408829</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>26.70719692020943</v>
+        <v>61.26482363567479</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>26.70719693064867</v>
+        <v>70.60084847011005</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>26.7071969045783</v>
+        <v>17.64286987206887</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>26.70719694046648</v>
+        <v>42.68591302693331</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>26.70719695217799</v>
+        <v>45.53883416122115</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>26.70719690142167</v>
+        <v>6.885267522517864</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>26.70719694038925</v>
+        <v>41.59956357553622</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>26.70719695304982</v>
+        <v>44.70022483707447</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>26.70719691351984</v>
+        <v>11.06005797251846</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>26.70719695295589</v>
+        <v>59.52645369260423</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>26.70719696472894</v>
+        <v>64.49585584607995</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>26.70719696248029</v>
+        <v>61.33013209164022</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>26.70719697871193</v>
+        <v>67.34345321160029</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>26.70719698405753</v>
+        <v>70.08396632612929</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>26.7071969318727</v>
+        <v>31.408954394159</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>26.70719697193081</v>
+        <v>69.40815360217725</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>26.70719698324142</v>
+        <v>72.90513889063304</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>26.7071969413359</v>
+        <v>19.01798443393967</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>26.70719697744083</v>
+        <v>46.42247456862108</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>26.70719698961344</v>
+        <v>50.55471467979036</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>26.70719693833099</v>
+        <v>9.494237673821701</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>26.70719697758197</v>
+        <v>50.28623133541228</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>26.70719699064934</v>
+        <v>53.40773345106713</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>26.70719695214274</v>
+        <v>16.51496517493388</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>26.70719699180112</v>
+        <v>71.21921215716473</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>26.70719700402443</v>
+        <v>78.90721333509937</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>26.70719699949716</v>
+        <v>84.42032079316103</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>26.70719701544984</v>
+        <v>91.36243515512308</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>26.70719702025344</v>
+        <v>94.20854165083097</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>26.70719696773346</v>
+        <v>40.84985342697995</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>26.70719700723539</v>
+        <v>85.38984807484694</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>26.70719701907395</v>
+        <v>90.87738239527245</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>26.70719684992289</v>
+        <v>15.05236592413613</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>26.70719688282189</v>
+        <v>35.98726730240164</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>26.70719689384382</v>
+        <v>40.17708264936117</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>26.70719684810437</v>
+        <v>6.485905208285367</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>26.70719688445141</v>
+        <v>41.38397513756161</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>26.70719689610258</v>
+        <v>44.06906303237438</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>26.70719685653382</v>
+        <v>11.62245556336856</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>26.70719689306272</v>
+        <v>58.23371859788744</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>26.70719690395474</v>
+        <v>61.07746411600415</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>26.70719690544103</v>
+        <v>62.09117726377734</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>26.70719691926929</v>
+        <v>67.63235628992379</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>26.70719692406322</v>
+        <v>69.81268558850992</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>26.7071968783751</v>
+        <v>23.39766876910015</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>26.70719691360742</v>
+        <v>57.09375774246791</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>26.70719692449581</v>
+        <v>63.99372749561135</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>26.70719689686367</v>
+        <v>11.79528597566562</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>26.70719693491736</v>
+        <v>38.43352101610206</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>26.70719694714313</v>
+        <v>42.60644483124149</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>26.7071968931352</v>
+        <v>4.03786911820027</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>26.7071969343333</v>
+        <v>37.00277665490584</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>26.70719694756301</v>
+        <v>42.141051465107</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>26.70719690579395</v>
+        <v>6.304563234896939</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>26.70719694752809</v>
+        <v>54.96386721554117</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>26.70719695984199</v>
+        <v>62.17549430056302</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>26.70719695774575</v>
+        <v>59.47934407723222</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>26.7071969748168</v>
+        <v>67.58269008063604</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>26.70719698046421</v>
+        <v>69.96427063307397</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>26.70719692510972</v>
+        <v>17.76344047327176</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>26.70719696768883</v>
+        <v>64.10568968520533</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>26.70719697957189</v>
+        <v>69.83438882162272</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>26.70719693593725</v>
+        <v>15.31587585708147</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>26.70719697420417</v>
+        <v>43.910400414591</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>26.70719698695261</v>
+        <v>49.95517090538283</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>26.70719693236877</v>
+        <v>5.431194580630379</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>26.70719697385573</v>
+        <v>44.06506118824471</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>26.70719698756734</v>
+        <v>49.45533626193058</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>26.70719694682689</v>
+        <v>9.057978950573162</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>26.70719698877829</v>
+        <v>63.6035682819603</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>26.70719700160388</v>
+        <v>74.00217022352945</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>26.7071969971307</v>
+        <v>79.77855292519332</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>26.70719701390558</v>
+        <v>88.01134909247551</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>26.70719701898305</v>
+        <v>93.72929655841746</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>26.70719696319952</v>
+        <v>26.15438785548355</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>26.70719700522972</v>
+        <v>78.1187029554647</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>26.70719701768113</v>
+        <v>87.00898874207286</v>
       </c>
     </row>
   </sheetData>
